--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6831A194-0B93-0641-934A-B5ADBE4392B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD55D0F4-9D37-4C4F-B3C9-29B306D9820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
     <sheet name="Unité" sheetId="2" r:id="rId2"/>
-    <sheet name="Four" sheetId="5" r:id="rId3"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId4"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId5"/>
+    <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
+    <sheet name="Four" sheetId="5" r:id="rId4"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId5"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId6"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>Type</t>
   </si>
@@ -277,16 +279,110 @@
   </si>
   <si>
     <t>https://www.miele.ch/fr/e/cuisiniere-h-2265-1-60-e-active-inox-cleansteel-11110820-p</t>
+  </si>
+  <si>
+    <t>Détails</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>G 27975-60 SCVi XXL AutoD K2O</t>
+  </si>
+  <si>
+    <t>kWh/cycle</t>
+  </si>
+  <si>
+    <t># couverts</t>
+  </si>
+  <si>
+    <t>Capacité</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Son (dB)</t>
+  </si>
+  <si>
+    <t>https://www.miele.ch/fr/e/lave-vaisselle-entierement-integrable-xxl-g-27975-60-scvi-xxl-autod-k2o-inoc-cleansteell-noir-obsidien-11887570-p?gad_source=1&amp;gclid=CjwKCAjw7oeqBhBwEiwALyHLMxsF2f0sLrI8mYQiCURZOjH7etPU2tl5QRJFwQxdBjZSdi5NpkuFuRoC7-4QAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Bosch SMU4HAS48E Geschirrspüler</t>
+  </si>
+  <si>
+    <t>https://www.nettoshop.ch/Haushalt-Grossgeräte/Geschirrspülen/Geschirrspüler-Einbau/Einbau-EU-Norm-60cm-integriert/Geschirrspüler-Einbau-EU-Norm-60cm-integriert-ab-30kg/Bosch-SMU4HAS48E-Geschirrspüler/p/IP319295?ds_rl=1049045&amp;gad_source=1&amp;gclid=EAIaIQobChMI-r_q7ZylggMVX45QBh1g7AIbEAQYAiABEgLHDvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Siemens SN43ES14CE</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/de/s1/product/siemens-sn43es14ce-geschirrspueler-einbau-14541161?utm_source=google&amp;utm_medium=cpc&amp;campaignid=20496417279&amp;adgroupid=&amp;adid=&amp;dgCidg=EAIaIQobChMI-r_q7ZylggMVX45QBh1g7AIbEAQYAyABEgIrQPD_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMI-r_q7ZylggMVX45QBh1g7AIbEAQYAyABEgIrQPD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>G 25315-60 i XXL Active Plus</t>
+  </si>
+  <si>
+    <t>https://www.miele.ch/fr/e/lave-vaisselle-integrable-g-25315-60-i-xxl-active-plus-noir-obsidien-12149210-p?gad_source=1&amp;gclid=CjwKCAjwkY2qBhBDEiwAoQXK5R6sIqGSZPzVQZLoVDHAdm9FOkCDqYcb1Q6vvHiaHLCSOn43YOlnWRoCoS0QAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Télévision</t>
+  </si>
+  <si>
+    <t>Ampoules</t>
+  </si>
+  <si>
+    <t>Chaffauge</t>
+  </si>
+  <si>
+    <t>Four à raclette</t>
+  </si>
+  <si>
+    <t>Piscine</t>
+  </si>
+  <si>
+    <t>Arrosage automatique</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Voiture</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>Douche/Baignoire</t>
+  </si>
+  <si>
+    <t>V-Zug 1104100001 AdoraWaschen</t>
+  </si>
+  <si>
+    <t>capacité (kg)</t>
+  </si>
+  <si>
+    <t>Consommation eau (L)</t>
+  </si>
+  <si>
+    <t>https://www.nettoshop.ch/Haushalt-Grossgeräte/Waschen-und-Trocknen/Waschmaschine/Waschmaschine-Front-Familie/V-Zug-1104100001-AdoraWaschen-V2000-Waschmaschine-Weiss-rechts/p/IP341804?ds_rl=1049045&amp;gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYASABEgJFW_D_BwE&amp;gclsrc=aw.ds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -391,7 +487,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,13 +499,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -488,29 +607,100 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78887</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>813443</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820E6922-23A1-741A-D79C-9C912EDF5D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389104" y="0"/>
+          <a:ext cx="2391077" cy="4847259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}" name="Tableau1" displayName="Tableau1" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition ref="A1:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}" name="Tableau1" displayName="Tableau1" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="G1:G23"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="18">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="17">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="9" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="16" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
+    <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}" name="Tableau5" displayName="Tableau5" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
+    <sortCondition ref="B1:B5"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -518,18 +708,18 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -537,7 +727,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -549,12 +739,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -563,6 +753,24 @@
     <tableColumn id="6" xr3:uid="{3D6B85CD-B93F-CC4B-BC1F-1E11CD9172A4}" name="dB"/>
     <tableColumn id="7" xr3:uid="{B1D14D98-817B-8646-8FCD-A696B4BACAFC}" name="Note sonore"/>
     <tableColumn id="8" xr3:uid="{FB14B927-BAB3-B144-9847-3AA94AC29375}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix"/>
+    <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
+    <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
+    <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
+    <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,19 +1073,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63FCF9-2FAA-724C-B87C-1397049E8037}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,224 +1104,407 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>47</v>
+        <v>238.38</v>
       </c>
       <c r="C2" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>109.62</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.315</v>
+      </c>
       <c r="E2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>9.634999999999998</v>
+        <v>137.38499999999999</v>
       </c>
       <c r="C3" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>31.365000000000002</v>
+        <v>75.614999999999995</v>
       </c>
       <c r="D3" s="3">
-        <v>0.76500000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>21.978000000000009</v>
+        <v>243.53800000000001</v>
       </c>
       <c r="C4" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>176.02199999999999</v>
+        <v>219.46199999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>0.88900000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="E4">
-        <v>198</v>
+        <v>463</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>47.123999999999995</v>
+        <v>254.84899999999999</v>
       </c>
       <c r="C5" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>139.876</v>
+        <v>88.150999999999996</v>
       </c>
       <c r="D5" s="3">
-        <v>0.748</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E5">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>31.395999999999987</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>135.60400000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.81200000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6">
-        <v>167</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>238.38</v>
+        <v>9.634999999999998</v>
       </c>
       <c r="C7" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>109.62</v>
+        <v>31.365000000000002</v>
       </c>
       <c r="D7" s="3">
-        <v>0.315</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E7">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>137.38499999999999</v>
+        <v>21.978000000000009</v>
       </c>
       <c r="C8" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>75.614999999999995</v>
+        <v>176.02199999999999</v>
       </c>
       <c r="D8" s="3">
-        <v>0.35499999999999998</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="E8">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>296.00099999999998</v>
+        <v>47.123999999999995</v>
       </c>
       <c r="C9" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>216.999</v>
+        <v>139.876</v>
       </c>
       <c r="D9" s="3">
-        <v>0.42299999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="E9">
-        <v>513</v>
+        <v>187</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
       </c>
       <c r="B10" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>243.53800000000001</v>
+        <v>31.395999999999987</v>
       </c>
       <c r="C10" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>219.46199999999999</v>
+        <v>135.60400000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>0.47399999999999998</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E10">
-        <v>463</v>
+        <v>167</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>254.84899999999999</v>
+        <v>296.00099999999998</v>
       </c>
       <c r="C11" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>88.150999999999996</v>
+        <v>216.999</v>
       </c>
       <c r="D11" s="3">
-        <v>0.25700000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E11">
-        <v>343</v>
+        <v>513</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4">
+        <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1127,7 +1518,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B11">
+  <conditionalFormatting sqref="B2:B23">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1157,7 +1548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E11</xm:sqref>
+          <xm:sqref>E2:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4DDACB77-8DB7-F349-9B52-4AC01F162F61}">
@@ -1168,7 +1559,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B2:B23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1200,10 +1591,283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8E113-C9BE-B54E-8C4B-765BF9509E84}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5">
+        <v>648</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5">
+        <v>677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10">
+        <v>74</v>
+      </c>
+      <c r="E3" s="10">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2030</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="H5" s="10">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{488ADECD-68BC-7944-92C7-AD34F40650F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9623781-D066-574D-A515-0BBB6B1D78F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{488ADECD-68BC-7944-92C7-AD34F40650F0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9623781-D066-574D-A515-0BBB6B1D78F4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1726,11 +2390,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="183" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2135,4 +2799,87 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>1549</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD55D0F4-9D37-4C4F-B3C9-29B306D9820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F430BF-4A8E-8A42-A651-969AC88C8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>Type</t>
   </si>
@@ -372,6 +372,24 @@
   </si>
   <si>
     <t>https://www.nettoshop.ch/Haushalt-Grossgeräte/Waschen-und-Trocknen/Waschmaschine/Waschmaschine-Front-Familie/V-Zug-1104100001-AdoraWaschen-V2000-Waschmaschine-Weiss-rechts/p/IP341804?ds_rl=1049045&amp;gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYASABEgJFW_D_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>SAMSUNG WW5000</t>
+  </si>
+  <si>
+    <t>https://www.mediamarkt.ch/de/product/_samsung-ww5000-2011188.html?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=rt_shopping_na_nsp_na_de-blueportal-pmax-sfbo-4&amp;gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYAiABEgIh6PD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Bosch WGB2440FCH</t>
+  </si>
+  <si>
+    <t>https://www.fust.ch/de/p/haushalt/waschmaschinen-und-waeschetrockner/waschmaschine-einfamilienhaus/waschmaschinen-frontlader/bosch/wgb2440fch-8715383.html?gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYAyABEgJA_fD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Lave-linge SAMSUNG</t>
+  </si>
+  <si>
+    <t>https://www.conforama.ch/fr/lave-linge-samsung-8kg-ww80t554aax-s5/product/270139?gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYBCABEgKFz_D_BwE</t>
   </si>
 </sst>
 </file>
@@ -382,7 +400,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -500,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -510,36 +528,6 @@
   <dxfs count="19">
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
@@ -586,6 +574,36 @@
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
@@ -611,16 +629,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>78887</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>154811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>813443</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43346</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61106</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,7 +661,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8389104" y="0"/>
+          <a:off x="9106931" y="248478"/>
           <a:ext cx="2391077" cy="4847259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -687,13 +705,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -708,11 +726,11 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -727,7 +745,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -740,11 +758,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -759,8 +777,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix"/>
@@ -1504,6 +1522,20 @@
       <c r="D23" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B23">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4DDACB77-8DB7-F349-9B52-4AC01F162F61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -1518,20 +1550,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4DDACB77-8DB7-F349-9B52-4AC01F162F61}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1539,6 +1557,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4DDACB77-8DB7-F349-9B52-4AC01F162F61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B23</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{97FDD995-D30E-B247-A5E3-D2195926C848}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -1549,17 +1578,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E2:E23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4DDACB77-8DB7-F349-9B52-4AC01F162F61}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B2:B23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1764,16 +1782,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{488ADECD-68BC-7944-92C7-AD34F40650F0}</x14:id>
+          <x14:id>{D9623781-D066-574D-A515-0BBB6B1D78F4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1792,16 +1810,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9623781-D066-574D-A515-0BBB6B1D78F4}</x14:id>
+          <x14:id>{488ADECD-68BC-7944-92C7-AD34F40650F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1825,7 +1843,7 @@
           <xm:sqref>D2:D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{488ADECD-68BC-7944-92C7-AD34F40650F0}">
+          <x14:cfRule type="dataBar" id="{D9623781-D066-574D-A515-0BBB6B1D78F4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1833,7 +1851,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H5</xm:sqref>
+          <xm:sqref>E2:E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}">
@@ -1847,7 +1865,7 @@
           <xm:sqref>F2:F5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D9623781-D066-574D-A515-0BBB6B1D78F4}">
+          <x14:cfRule type="dataBar" id="{488ADECD-68BC-7944-92C7-AD34F40650F0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1855,7 +1873,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2065,16 +2083,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
+          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2093,16 +2111,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
+          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2115,7 +2133,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
+          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2123,7 +2141,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F8</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82A47BC7-3182-5643-B5CD-0E879656A5A8}">
@@ -2137,7 +2155,7 @@
           <xm:sqref>E2:E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
+          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2145,7 +2163,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D8</xm:sqref>
+          <xm:sqref>F2:F8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2803,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,6 +2893,93 @@
         <v>109</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>608</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>1899.9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>699.95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F430BF-4A8E-8A42-A651-969AC88C8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C79C2C-4F4E-9547-A0A2-2FAF63013D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="7" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Réfrigérateur" sheetId="3" r:id="rId5"/>
     <sheet name="Climatiseurs" sheetId="4" r:id="rId6"/>
     <sheet name="Lave-linge" sheetId="7" r:id="rId7"/>
+    <sheet name="TV" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
   <si>
     <t>Type</t>
   </si>
@@ -390,6 +391,48 @@
   </si>
   <si>
     <t>https://www.conforama.ch/fr/lave-linge-samsung-8kg-ww80t554aax-s5/product/270139?gad_source=1&amp;gclid=EAIaIQobChMI0eHI1KalggMVrIBQBh2yLwH3EAQYBCABEgKFz_D_BwE</t>
+  </si>
+  <si>
+    <t>Samsung UE43CU7170 - 43'', 4K UHD LED TV, 2023</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>kWh/1000h</t>
+  </si>
+  <si>
+    <t>Hdr kWh/1000h</t>
+  </si>
+  <si>
+    <t>3840x2160</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.fust.ch/fr/p/tv-photo-gaming/televiseurs-projecteurs-accessoires/televiseurs/samsung/ue43cu7170-43-4k-uhd-led-tv-2023-8721644.html?gad_source=1&amp;gclid=EAIaIQobChMIgYChxuq0ggMV94ZoCR3j2QotEAQYASABEgI1dPD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Samsung UE75CU7170 - 75'', 4K UHD LED TV, 2023</t>
+  </si>
+  <si>
+    <t>https://www.fust.ch/fr/p/tv-photo-gaming/televiseurs-projecteurs-accessoires/televiseurs/samsung/ue75cu7170-75-4k-uhd-led-tv-2023-8717298.html?gad_source=1&amp;gclid=EAIaIQobChMIgYChxuq0ggMV94ZoCR3j2QotEAQYCCABEgLCLvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>Télévision QLED POLAROID 43''/109 cm</t>
+  </si>
+  <si>
+    <t>https://www.conforama.ch/fr/television-qled-polaroid-43-109-cm-tcs43qled-4k/product/277181?gad_source=1&amp;gclid=EAIaIQobChMIgYChxuq0ggMV94ZoCR3j2QotEAQYAyABEgJn6_D_BwE</t>
+  </si>
+  <si>
+    <t>SAMSUNG UE75CU7170U</t>
+  </si>
+  <si>
+    <t>https://www.mediamarkt.ch/fr/product/_samsung-ue75cu7170u-2176448.html?utm_source=google&amp;utm_medium=seo-product%20feed&amp;utm_campaign=rt_shopping_na_nsp_na_freelisting&amp;utm_id=1&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=rt_shopping_na_nsp_na_fr-blueportal-pmax-sfbo-5&amp;gad_source=1&amp;gclid=EAIaIQobChMIgYChxuq0ggMV94ZoCR3j2QotEAQYDSABEgJJv_D_BwE&amp;gclsrc=aw.ds</t>
   </si>
 </sst>
 </file>
@@ -525,7 +568,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
@@ -636,7 +691,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>61106</xdr:colOff>
+      <xdr:colOff>61105</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>91661</xdr:rowOff>
     </xdr:to>
@@ -682,13 +737,13 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="22">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="21">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="16" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="20" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
     <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
@@ -705,13 +760,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -726,11 +781,11 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -745,7 +800,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -758,11 +813,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -779,16 +834,35 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
+    <sortCondition ref="D1:D5"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
     <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
     <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
+    <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,7 +1168,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,6 +1425,9 @@
       </c>
       <c r="F11">
         <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,12 +2900,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
@@ -2866,45 +2945,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2">
-        <v>1549</v>
+        <v>112</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1899.9</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="11">
-        <v>0.15138888888888888</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>608</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1549</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -2913,49 +2992,49 @@
         <v>0.15138888888888888</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4">
-        <v>1899.9</v>
+        <v>110</v>
+      </c>
+      <c r="B4" s="5">
+        <v>608</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11">
-        <v>0.15833333333333333</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>699.95</v>
       </c>
       <c r="C5" t="s">
@@ -2981,10 +3060,286 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95F3312C-13CF-EC4F-B198-E2DB516C1D45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5">
+        <v>449.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="10">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5">
+        <v>949.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10">
+        <v>129</v>
+      </c>
+      <c r="E3" s="10">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="5">
+        <v>299.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="10">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5">
+        <v>899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3CD5DF4-649D-934D-A726-1F96341F93F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C79C2C-4F4E-9547-A0A2-2FAF63013D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00485275-9DF9-EC43-9361-A090CFC0E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="7" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
     <sheet name="Unité" sheetId="2" r:id="rId2"/>
     <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
-    <sheet name="Four" sheetId="5" r:id="rId4"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId5"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId6"/>
-    <sheet name="Lave-linge" sheetId="7" r:id="rId7"/>
-    <sheet name="TV" sheetId="8" r:id="rId8"/>
+    <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
+    <sheet name="Autres" sheetId="11" r:id="rId5"/>
+    <sheet name="Ampoule" sheetId="9" r:id="rId6"/>
+    <sheet name="Four" sheetId="5" r:id="rId7"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId8"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId9"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId10"/>
+    <sheet name="TV" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>Type</t>
   </si>
@@ -433,6 +436,87 @@
   </si>
   <si>
     <t>https://www.mediamarkt.ch/fr/product/_samsung-ue75cu7170u-2176448.html?utm_source=google&amp;utm_medium=seo-product%20feed&amp;utm_campaign=rt_shopping_na_nsp_na_freelisting&amp;utm_id=1&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=rt_shopping_na_nsp_na_fr-blueportal-pmax-sfbo-5&amp;gad_source=1&amp;gclid=EAIaIQobChMIgYChxuq0ggMV94ZoCR3j2QotEAQYDSABEgJJv_D_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>OSRAM Ampoule LED RETROFIT CLASSIC B E27</t>
+  </si>
+  <si>
+    <t>Osram LED Base Classique A60FR</t>
+  </si>
+  <si>
+    <t>OSRAM LED E27 60 -7W/2700K</t>
+  </si>
+  <si>
+    <t>LED BASE KLASSISCH A 40 CL 4 W 2700 K E27 FIL</t>
+  </si>
+  <si>
+    <t>Osram LED Retrofit Classic A 60 CI</t>
+  </si>
+  <si>
+    <t>LEDVANCE Ampoule LED SMART WIFI P40 5W/827 230V DIM FR E14</t>
+  </si>
+  <si>
+    <t>Heat pump</t>
+  </si>
+  <si>
+    <t>Consommation par année (kWh)</t>
+  </si>
+  <si>
+    <t>https://www.liiva.ch/en/content-hub/articles/stromverbrauch-waermepumpe</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/tools/faqs/faq.php?id=667&amp;t=6</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>0.88 kWh/pound</t>
+  </si>
+  <si>
+    <t>0.13 kWh/cubic foot</t>
+  </si>
+  <si>
+    <t>Natural gaz</t>
+  </si>
+  <si>
+    <t>Petrole liquide</t>
+  </si>
+  <si>
+    <t>12.90 kWh/gallon</t>
+  </si>
+  <si>
+    <t>1.18 kWh/pound</t>
+  </si>
+  <si>
+    <t>Petroleum coke</t>
+  </si>
+  <si>
+    <t>Consommation</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>40 L/utilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douche </t>
+  </si>
+  <si>
+    <t>Bain</t>
+  </si>
+  <si>
+    <t>200-250 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit bain </t>
+  </si>
+  <si>
+    <t>125-150</t>
+  </si>
+  <si>
+    <t>35-60 L/utilisation</t>
   </si>
 </sst>
 </file>
@@ -568,7 +652,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -680,55 +767,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>154811</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>48315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>61105</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91661</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820E6922-23A1-741A-D79C-9C912EDF5D7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9106931" y="248478"/>
-          <a:ext cx="2391077" cy="4847259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}" name="Tableau1" displayName="Tableau1" ref="A1:G23" totalsRowShown="0">
   <autoFilter ref="A1:G23" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}"/>
@@ -737,16 +775,32 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="23">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="22">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="20" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="21" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
     <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
+    <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,13 +814,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -774,6 +828,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DD1DCAF8-0E29-614E-907E-A1C180D4A7DC}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{6D557020-5894-E140-94F6-31D4FCCF5D31}" name="Consommation par année (kWh)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}" name="Tableau10" displayName="Tableau10" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{79959E98-D89E-434A-9E0E-3AE6CB43F536}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{E400A699-ABD5-234D-943E-F79111A01D50}" name="Consommation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="C1:C7"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -781,18 +873,18 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -800,7 +892,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -812,12 +904,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -831,7 +923,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -839,30 +931,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
     <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
     <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
-    <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,7 +1244,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,6 +1519,9 @@
         <v>0</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1662,6 +1741,460 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1899.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1549</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="5">
+        <v>608</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5">
+        <v>699.95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95F3312C-13CF-EC4F-B198-E2DB516C1D45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5">
+        <v>449.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="10">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5">
+        <v>949.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10">
+        <v>129</v>
+      </c>
+      <c r="E3" s="10">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="5">
+        <v>299.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="10">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5">
+        <v>899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3CD5DF4-649D-934D-A726-1F96341F93F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339A0DA-1FCD-7342-83B8-CBA496182805}">
   <dimension ref="A1:B1"/>
@@ -1687,14 +2220,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8E113-C9BE-B54E-8C4B-765BF9509E84}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -1959,11 +2496,335 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>7060</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5308A4-D575-5C4C-9F39-4902AFAE4E68}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,12 +3109,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2485,12 +3349,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2894,452 +3761,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1899.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1549</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G3">
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="5">
-        <v>608</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G4">
-        <v>48</v>
-      </c>
-      <c r="H4">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5">
-        <v>699.95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G5">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95F3312C-13CF-EC4F-B198-E2DB516C1D45}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2:H5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2:G5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5">
-        <v>449.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="10">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="5">
-        <v>949.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="10">
-        <v>129</v>
-      </c>
-      <c r="E3" s="10">
-        <v>229</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="5">
-        <v>299.95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="10">
-        <v>66</v>
-      </c>
-      <c r="E4" s="10">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5">
-        <v>899</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10">
-        <v>129</v>
-      </c>
-      <c r="E5" s="10">
-        <v>229</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3CD5DF4-649D-934D-A726-1F96341F93F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00485275-9DF9-EC43-9361-A090CFC0E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229005E-C90E-B740-B659-CAB9BEED5045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="5" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
     <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
     <sheet name="Autres" sheetId="11" r:id="rId5"/>
-    <sheet name="Ampoule" sheetId="9" r:id="rId6"/>
-    <sheet name="Four" sheetId="5" r:id="rId7"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId8"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId9"/>
-    <sheet name="Lave-linge" sheetId="7" r:id="rId10"/>
-    <sheet name="TV" sheetId="8" r:id="rId11"/>
+    <sheet name="Jeux" sheetId="12" r:id="rId6"/>
+    <sheet name="Ampoule" sheetId="9" r:id="rId7"/>
+    <sheet name="Four" sheetId="5" r:id="rId8"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId9"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId10"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId11"/>
+    <sheet name="TV" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
   <si>
     <t>Type</t>
   </si>
@@ -517,6 +518,117 @@
   </si>
   <si>
     <t>35-60 L/utilisation</t>
+  </si>
+  <si>
+    <t>Playstation disque </t>
+  </si>
+  <si>
+    <t>Playstation édition numérique</t>
+  </si>
+  <si>
+    <t>Session de jeu en HD</t>
+  </si>
+  <si>
+    <t>209,8 Wh</t>
+  </si>
+  <si>
+    <t>200,8 Wh</t>
+  </si>
+  <si>
+    <t>Session de jeu en Ultra HD</t>
+  </si>
+  <si>
+    <t>210,9 Wh</t>
+  </si>
+  <si>
+    <t>200,9 Wh</t>
+  </si>
+  <si>
+    <t>Lecture de Blue-Ray en HD</t>
+  </si>
+  <si>
+    <t>55,7 Wh</t>
+  </si>
+  <si>
+    <t>Lecture de Blue-Ray en Ultra HD</t>
+  </si>
+  <si>
+    <t>80,7 Wh</t>
+  </si>
+  <si>
+    <t>Streaming vidéo HD</t>
+  </si>
+  <si>
+    <t>56,1 Wh</t>
+  </si>
+  <si>
+    <t>54,6 Wh</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Consommation d'énergie</t>
+  </si>
+  <si>
+    <t>Diffusion en continu UHD</t>
+  </si>
+  <si>
+    <t>31 W</t>
+  </si>
+  <si>
+    <t>Jeu actif</t>
+  </si>
+  <si>
+    <t>74 W</t>
+  </si>
+  <si>
+    <t>Mode de navigation APD</t>
+  </si>
+  <si>
+    <t>60 minutes</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Nintendo Switch – Modèle OLED [HEG-001]</t>
+  </si>
+  <si>
+    <t>Nintendo Switch [HAC-001(-01)]</t>
+  </si>
+  <si>
+    <t>Mode téléviseur</t>
+  </si>
+  <si>
+    <t>Session de jeu *1</t>
+  </si>
+  <si>
+    <t>6 W</t>
+  </si>
+  <si>
+    <t>7 W</t>
+  </si>
+  <si>
+    <t>Streaming en HD *2</t>
+  </si>
+  <si>
+    <t>5 W</t>
+  </si>
+  <si>
+    <t>Menu HOME</t>
+  </si>
+  <si>
+    <t>3 W</t>
+  </si>
+  <si>
+    <t>Mode téléviseur2</t>
+  </si>
+  <si>
+    <t>Activité</t>
   </si>
 </sst>
 </file>
@@ -791,6 +903,66 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
+    <sortCondition ref="B1:B5"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
+    <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
+    <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
+    <tableColumn id="7" xr3:uid="{DB36CB5E-5DAC-8F40-A044-850925756430}" name="db"/>
+    <tableColumn id="6" xr3:uid="{AF7F7733-C1F2-B54A-9F48-A92519503C56}" name="Note sonore"/>
+    <tableColumn id="5" xr3:uid="{6B5C6EC8-2EA9-A148-8B43-8CB88DDBA942}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
+    <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
+    <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
+    <tableColumn id="10" xr3:uid="{C875C563-C72C-584E-9961-6B01C403D39A}" name="Chaud kWh/60min"/>
+    <tableColumn id="5" xr3:uid="{DE1DD98F-A8E9-CC4F-90BD-168047F70F29}" name="Chaud kWh/annum2"/>
+    <tableColumn id="6" xr3:uid="{3D6B85CD-B93F-CC4B-BC1F-1E11CD9172A4}" name="dB"/>
+    <tableColumn id="7" xr3:uid="{B1D14D98-817B-8646-8FCD-A696B4BACAFC}" name="Note sonore"/>
+    <tableColumn id="8" xr3:uid="{FB14B927-BAB3-B144-9847-3AA94AC29375}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
+    <sortCondition ref="D1:D5"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
+    <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
+    <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
+    <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
   <tableColumns count="7">
@@ -850,6 +1022,41 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C177E498-705F-9A49-A75B-55019BE23995}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{BFCD399C-6078-DD45-BED9-3C6798CB049D}" name="Playstation disque "/>
+    <tableColumn id="3" xr3:uid="{830DE64C-3942-1148-9B8B-146FC4943415}" name="Playstation édition numérique"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
+  <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{90E10555-0BEB-D846-863C-3A1EF4A1D694}" name="Mode"/>
+    <tableColumn id="2" xr3:uid="{473E53E4-C8BA-9445-ADC9-A56563A0FE13}" name="Consommation d'énergie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
+  <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8626B437-BE11-564F-9257-A11148F3C432}" name="Activité"/>
+    <tableColumn id="2" xr3:uid="{28B2C82F-E3F8-4B4C-A7FD-E5A34C8261C4}" name="Mode téléviseur"/>
+    <tableColumn id="3" xr3:uid="{796EE067-807D-394E-BE37-97CA2879F889}" name="Mode téléviseur2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
@@ -865,7 +1072,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -879,66 +1086,6 @@
     <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
-    <sortCondition ref="B1:B5"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
-    <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
-    <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
-    <tableColumn id="7" xr3:uid="{DB36CB5E-5DAC-8F40-A044-850925756430}" name="db"/>
-    <tableColumn id="6" xr3:uid="{AF7F7733-C1F2-B54A-9F48-A92519503C56}" name="Note sonore"/>
-    <tableColumn id="5" xr3:uid="{6B5C6EC8-2EA9-A148-8B43-8CB88DDBA942}" name="Lien"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
-    <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
-    <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
-    <tableColumn id="10" xr3:uid="{C875C563-C72C-584E-9961-6B01C403D39A}" name="Chaud kWh/60min"/>
-    <tableColumn id="5" xr3:uid="{DE1DD98F-A8E9-CC4F-90BD-168047F70F29}" name="Chaud kWh/annum2"/>
-    <tableColumn id="6" xr3:uid="{3D6B85CD-B93F-CC4B-BC1F-1E11CD9172A4}" name="dB"/>
-    <tableColumn id="7" xr3:uid="{B1D14D98-817B-8646-8FCD-A696B4BACAFC}" name="Note sonore"/>
-    <tableColumn id="8" xr3:uid="{FB14B927-BAB3-B144-9847-3AA94AC29375}" name="Lien"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
-  <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
-    <sortCondition ref="D1:D5"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
-    <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
-    <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
-    <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1742,1614 +1889,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1899.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1549</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G3">
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="5">
-        <v>608</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G4">
-        <v>48</v>
-      </c>
-      <c r="H4">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5">
-        <v>699.95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="G5">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95F3312C-13CF-EC4F-B198-E2DB516C1D45}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2:H5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2:G5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5">
-        <v>449.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="10">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="5">
-        <v>949.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="10">
-        <v>129</v>
-      </c>
-      <c r="E3" s="10">
-        <v>229</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="5">
-        <v>299.95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="10">
-        <v>66</v>
-      </c>
-      <c r="E4" s="10">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5">
-        <v>899</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10">
-        <v>129</v>
-      </c>
-      <c r="E5" s="10">
-        <v>229</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3CD5DF4-649D-934D-A726-1F96341F93F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339A0DA-1FCD-7342-83B8-CBA496182805}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView zoomScale="319" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8E113-C9BE-B54E-8C4B-765BF9509E84}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="5">
-        <v>648</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="10">
-        <v>84</v>
-      </c>
-      <c r="E2" s="10">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0.20486111111111113</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="5">
-        <v>677</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10">
-        <v>74</v>
-      </c>
-      <c r="E3" s="10">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.19097222222222221</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2030</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="10">
-        <v>73</v>
-      </c>
-      <c r="E4" s="10">
-        <v>13</v>
-      </c>
-      <c r="F4" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.13819444444444443</v>
-      </c>
-      <c r="H4" s="10">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10">
-        <v>54</v>
-      </c>
-      <c r="E5" s="10">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="H5" s="10">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9623781-D066-574D-A515-0BBB6B1D78F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{488ADECD-68BC-7944-92C7-AD34F40650F0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D9623781-D066-574D-A515-0BBB6B1D78F4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{488ADECD-68BC-7944-92C7-AD34F40650F0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2:H5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2">
-        <v>7060</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5308A4-D575-5C4C-9F39-4902AFAE4E68}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6.95</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7.95</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12.95</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>19.95</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C7</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1470</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="10">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.05</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1545</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="10">
-        <v>71</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1590</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="10">
-        <v>73</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="10">
-        <v>73</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2350</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="10">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4790</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="10">
-        <v>71</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4895</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="10">
-        <v>70</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82A47BC7-3182-5643-B5CD-0E879656A5A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82A47BC7-3182-5643-B5CD-0E879656A5A8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5">
-        <v>619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>138</v>
-      </c>
-      <c r="E2">
-        <v>296</v>
-      </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5">
-        <v>629.1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>233</v>
-      </c>
-      <c r="E3">
-        <v>216</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5">
-        <v>699</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>204</v>
-      </c>
-      <c r="E4">
-        <v>230</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1623</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>351</v>
-      </c>
-      <c r="E5">
-        <v>409</v>
-      </c>
-      <c r="F5">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9855024F-B521-DF4F-8153-73656EE1CE22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61909946-6D51-4F4B-A5EE-B77DA2A369F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B8D33693-7221-1E48-ADF3-60FF55FA517E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1D5787CE-CEE6-824A-B10F-1183B9C8E5DF}"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://www.ikea.com/ch/fr/p/uppkalla-refrigerateur-congelateur-ikea-300-independant-couleur-acier-inox-30494849/?&amp;extProvId=5&amp;extPu=14231-gaw&amp;extLi=19629959199&amp;extCr=144110856445-646694522378&amp;keyword=&amp;extSi=&amp;gad_source=1&amp;gclid=CjwKCAjw7oeqBhBwEiwALyHLM3Tfwq4xfht2foqiq95-Fd0l7qAy55qhA2SBFPM2EWSxLwqYuZ4ZMhoCs04QAvD_BwE" xr:uid="{6134C706-4DC6-764E-9F2E-283814C6254B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9855024F-B521-DF4F-8153-73656EE1CE22}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61909946-6D51-4F4B-A5EE-B77DA2A369F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B8D33693-7221-1E48-ADF3-60FF55FA517E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3761,4 +2300,1808 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1899.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1549</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="5">
+        <v>608</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5">
+        <v>699.95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95F3312C-13CF-EC4F-B198-E2DB516C1D45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5">
+        <v>449.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="10">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="5">
+        <v>949.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10">
+        <v>129</v>
+      </c>
+      <c r="E3" s="10">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="5">
+        <v>299.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="10">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="5">
+        <v>899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3CD5DF4-649D-934D-A726-1F96341F93F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339A0DA-1FCD-7342-83B8-CBA496182805}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="319" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8E113-C9BE-B54E-8C4B-765BF9509E84}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5">
+        <v>648</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5">
+        <v>677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10">
+        <v>74</v>
+      </c>
+      <c r="E3" s="10">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2030</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="H5" s="10">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9623781-D066-574D-A515-0BBB6B1D78F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{488ADECD-68BC-7944-92C7-AD34F40650F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{530FD48E-5AD8-E749-8536-6F5AF8BDCA61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9623781-D066-574D-A515-0BBB6B1D78F4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A0E195D-D108-BC45-8F1F-9E6A2C7CABBD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{488ADECD-68BC-7944-92C7-AD34F40650F0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>7060</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5308A4-D575-5C4C-9F39-4902AFAE4E68}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="215" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40677561-A7CB-4E40-B7D5-373AC982D89E}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10">
+        <v>71</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="10">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10">
+        <v>73</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4790</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4895</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82A47BC7-3182-5643-B5CD-0E879656A5A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82A47BC7-3182-5643-B5CD-0E879656A5A8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>296</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>629.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>233</v>
+      </c>
+      <c r="E3">
+        <v>216</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>230</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>351</v>
+      </c>
+      <c r="E5">
+        <v>409</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9855024F-B521-DF4F-8153-73656EE1CE22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61909946-6D51-4F4B-A5EE-B77DA2A369F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B8D33693-7221-1E48-ADF3-60FF55FA517E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1D5787CE-CEE6-824A-B10F-1183B9C8E5DF}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.ikea.com/ch/fr/p/uppkalla-refrigerateur-congelateur-ikea-300-independant-couleur-acier-inox-30494849/?&amp;extProvId=5&amp;extPu=14231-gaw&amp;extLi=19629959199&amp;extCr=144110856445-646694522378&amp;keyword=&amp;extSi=&amp;gad_source=1&amp;gclid=CjwKCAjw7oeqBhBwEiwALyHLM3Tfwq4xfht2foqiq95-Fd0l7qAy55qhA2SBFPM2EWSxLwqYuZ4ZMhoCs04QAvD_BwE" xr:uid="{6134C706-4DC6-764E-9F2E-283814C6254B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9855024F-B521-DF4F-8153-73656EE1CE22}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61909946-6D51-4F4B-A5EE-B77DA2A369F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B8D33693-7221-1E48-ADF3-60FF55FA517E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229005E-C90E-B740-B659-CAB9BEED5045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F520BB-0CBE-E643-94A4-4D4D1C7A92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="5" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
     <sheet name="Autres" sheetId="11" r:id="rId5"/>
     <sheet name="Jeux" sheetId="12" r:id="rId6"/>
-    <sheet name="Ampoule" sheetId="9" r:id="rId7"/>
-    <sheet name="Four" sheetId="5" r:id="rId8"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId9"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId10"/>
-    <sheet name="Lave-linge" sheetId="7" r:id="rId11"/>
-    <sheet name="TV" sheetId="8" r:id="rId12"/>
+    <sheet name="Piscine" sheetId="13" r:id="rId7"/>
+    <sheet name="Ampoule" sheetId="9" r:id="rId8"/>
+    <sheet name="Four" sheetId="5" r:id="rId9"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId10"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId11"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId12"/>
+    <sheet name="TV" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
   <si>
     <t>Type</t>
   </si>
@@ -629,6 +630,33 @@
   </si>
   <si>
     <t>Activité</t>
+  </si>
+  <si>
+    <t>Taille de la piscine</t>
+  </si>
+  <si>
+    <t>Consommation annuelle (kWh)</t>
+  </si>
+  <si>
+    <t>Prix par an</t>
+  </si>
+  <si>
+    <t>Piscine de 40m³</t>
+  </si>
+  <si>
+    <t>1 695</t>
+  </si>
+  <si>
+    <t>Piscine de 60m³</t>
+  </si>
+  <si>
+    <t>2 396</t>
+  </si>
+  <si>
+    <t>Piscine de 80m³</t>
+  </si>
+  <si>
+    <t>4 264</t>
   </si>
 </sst>
 </file>
@@ -764,7 +792,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="172" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
@@ -887,13 +970,13 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="26">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="25">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="21" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="24" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
     <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
@@ -903,6 +986,25 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -910,7 +1012,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -922,12 +1024,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -941,7 +1043,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -949,11 +1051,11 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
     <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
     <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
@@ -962,15 +1064,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
     <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
@@ -986,13 +1088,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1057,6 +1159,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
@@ -1065,27 +1179,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
-    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
-  <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-    <sortCondition ref="B1:B8"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1889,6 +1984,246 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>296</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>629.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>233</v>
+      </c>
+      <c r="E3">
+        <v>216</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>230</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>351</v>
+      </c>
+      <c r="E5">
+        <v>409</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9855024F-B521-DF4F-8153-73656EE1CE22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61909946-6D51-4F4B-A5EE-B77DA2A369F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B8D33693-7221-1E48-ADF3-60FF55FA517E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1D5787CE-CEE6-824A-B10F-1183B9C8E5DF}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.ikea.com/ch/fr/p/uppkalla-refrigerateur-congelateur-ikea-300-independant-couleur-acier-inox-30494849/?&amp;extProvId=5&amp;extPu=14231-gaw&amp;extLi=19629959199&amp;extCr=144110856445-646694522378&amp;keyword=&amp;extSi=&amp;gad_source=1&amp;gclid=CjwKCAjw7oeqBhBwEiwALyHLM3Tfwq4xfht2foqiq95-Fd0l7qAy55qhA2SBFPM2EWSxLwqYuZ4ZMhoCs04QAvD_BwE" xr:uid="{6134C706-4DC6-764E-9F2E-283814C6254B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9855024F-B521-DF4F-8153-73656EE1CE22}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61909946-6D51-4F4B-A5EE-B77DA2A369F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B8D33693-7221-1E48-ADF3-60FF55FA517E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2302,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2558,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3206,7 +3541,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3396,6 +3731,76 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE293B9-7566-2949-A749-D3685483E9D2}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3573,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3864,244 +4269,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5">
-        <v>619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>138</v>
-      </c>
-      <c r="E2">
-        <v>296</v>
-      </c>
-      <c r="F2">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5">
-        <v>629.1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>233</v>
-      </c>
-      <c r="E3">
-        <v>216</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5">
-        <v>699</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>204</v>
-      </c>
-      <c r="E4">
-        <v>230</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1623</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>351</v>
-      </c>
-      <c r="E5">
-        <v>409</v>
-      </c>
-      <c r="F5">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9855024F-B521-DF4F-8153-73656EE1CE22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61909946-6D51-4F4B-A5EE-B77DA2A369F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B8D33693-7221-1E48-ADF3-60FF55FA517E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{1D5787CE-CEE6-824A-B10F-1183B9C8E5DF}"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://www.ikea.com/ch/fr/p/uppkalla-refrigerateur-congelateur-ikea-300-independant-couleur-acier-inox-30494849/?&amp;extProvId=5&amp;extPu=14231-gaw&amp;extLi=19629959199&amp;extCr=144110856445-646694522378&amp;keyword=&amp;extSi=&amp;gad_source=1&amp;gclid=CjwKCAjw7oeqBhBwEiwALyHLM3Tfwq4xfht2foqiq95-Fd0l7qAy55qhA2SBFPM2EWSxLwqYuZ4ZMhoCs04QAvD_BwE" xr:uid="{6134C706-4DC6-764E-9F2E-283814C6254B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9855024F-B521-DF4F-8153-73656EE1CE22}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61909946-6D51-4F4B-A5EE-B77DA2A369F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B8D33693-7221-1E48-ADF3-60FF55FA517E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F520BB-0CBE-E643-94A4-4D4D1C7A92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0E66A-A568-FE42-A2E9-C49AD7516F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
     <sheet name="Unité" sheetId="2" r:id="rId2"/>
     <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
     <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
-    <sheet name="Autres" sheetId="11" r:id="rId5"/>
+    <sheet name="Salle d'eau" sheetId="11" r:id="rId5"/>
     <sheet name="Jeux" sheetId="12" r:id="rId6"/>
     <sheet name="Piscine" sheetId="13" r:id="rId7"/>
     <sheet name="Ampoule" sheetId="9" r:id="rId8"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t>Type</t>
   </si>
@@ -644,19 +644,10 @@
     <t>Piscine de 40m³</t>
   </si>
   <si>
-    <t>1 695</t>
-  </si>
-  <si>
     <t>Piscine de 60m³</t>
   </si>
   <si>
-    <t>2 396</t>
-  </si>
-  <si>
     <t>Piscine de 80m³</t>
-  </si>
-  <si>
-    <t>4 264</t>
   </si>
 </sst>
 </file>
@@ -3477,8 +3468,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3542,7 +3533,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3737,14 +3728,14 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3763,8 +3754,8 @@
       <c r="A2" t="s">
         <v>197</v>
       </c>
-      <c r="B2" t="s">
-        <v>198</v>
+      <c r="B2">
+        <v>1695</v>
       </c>
       <c r="C2">
         <v>321</v>
@@ -3772,10 +3763,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>2396</v>
       </c>
       <c r="C3">
         <v>454</v>
@@ -3783,20 +3774,76 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>4264</v>
       </c>
       <c r="C4">
         <v>807</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E39645E1-4A3F-4F41-9549-987E61E35D68}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67A93F44-0871-614B-80DE-DE262D523B67}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E39645E1-4A3F-4F41-9549-987E61E35D68}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67A93F44-0871-614B-80DE-DE262D523B67}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3807,12 +3854,13 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0E66A-A568-FE42-A2E9-C49AD7516F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6DCE6-DF7B-6247-99E0-DA73C0658211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="4" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="5" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
     <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
     <sheet name="Salle d'eau" sheetId="11" r:id="rId5"/>
-    <sheet name="Jeux" sheetId="12" r:id="rId6"/>
-    <sheet name="Piscine" sheetId="13" r:id="rId7"/>
-    <sheet name="Ampoule" sheetId="9" r:id="rId8"/>
-    <sheet name="Four" sheetId="5" r:id="rId9"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId10"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId11"/>
-    <sheet name="Lave-linge" sheetId="7" r:id="rId12"/>
-    <sheet name="TV" sheetId="8" r:id="rId13"/>
+    <sheet name="Ordinateur" sheetId="14" r:id="rId6"/>
+    <sheet name="Jeux" sheetId="12" r:id="rId7"/>
+    <sheet name="Piscine" sheetId="13" r:id="rId8"/>
+    <sheet name="Ampoule" sheetId="9" r:id="rId9"/>
+    <sheet name="Four" sheetId="5" r:id="rId10"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId11"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId12"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId13"/>
+    <sheet name="TV" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="205">
   <si>
     <t>Type</t>
   </si>
@@ -648,6 +649,21 @@
   </si>
   <si>
     <t>Piscine de 80m³</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>75-730</t>
+  </si>
+  <si>
+    <t>20-275</t>
+  </si>
+  <si>
+    <t>Portable</t>
   </si>
 </sst>
 </file>
@@ -977,6 +993,22 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="C1:C7"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -995,7 +1027,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -1015,7 +1047,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
@@ -1034,7 +1066,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1055,7 +1087,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
   <tableColumns count="7">
@@ -1115,6 +1147,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
   <tableColumns count="3">
@@ -1126,7 +1169,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
   <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
   <tableColumns count="2">
@@ -1137,7 +1180,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
   <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
   <tableColumns count="3">
@@ -1149,29 +1192,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
-    <sortCondition ref="C1:C7"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
-    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1975,6 +2002,299 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10">
+        <v>71</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="10">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10">
+        <v>73</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4790</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4895</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82A47BC7-3182-5643-B5CD-0E879656A5A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82A47BC7-3182-5643-B5CD-0E879656A5A8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2214,7 +2534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2628,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2884,7 +3204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3468,7 +3788,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
+    <sheetView zoomScale="214" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3526,6 +3846,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294B5806-9E4C-244C-8AE2-E94C6ABE62A7}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="246" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40677561-A7CB-4E40-B7D5-373AC982D89E}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3721,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE293B9-7566-2949-A749-D3685483E9D2}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3847,7 +4212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -4024,297 +4389,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1470</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="10">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.05</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1545</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="10">
-        <v>71</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1590</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="10">
-        <v>73</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="10">
-        <v>73</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2350</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="10">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4790</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="10">
-        <v>71</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4895</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="10">
-        <v>70</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{929D9E44-20DA-E54D-BF8B-86937B66DB97}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82A47BC7-3182-5643-B5CD-0E879656A5A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{929D9E44-20DA-E54D-BF8B-86937B66DB97}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82A47BC7-3182-5643-B5CD-0E879656A5A8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5CC8F08-C8D4-554B-9889-88E60DD5AB50}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6DCE6-DF7B-6247-99E0-DA73C0658211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41F772-1727-1E4C-B2ED-E4BD35EDE6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="5" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="213">
   <si>
     <t>Type</t>
   </si>
@@ -664,6 +664,30 @@
   </si>
   <si>
     <t>Portable</t>
+  </si>
+  <si>
+    <t>Temps d'utilisation</t>
+  </si>
+  <si>
+    <t>Consommation d'électricité en kWh par an</t>
+  </si>
+  <si>
+    <t>Prix TTC par an</t>
+  </si>
+  <si>
+    <t>Une heure par jour</t>
+  </si>
+  <si>
+    <t>Cinq heures par jour</t>
+  </si>
+  <si>
+    <t>Dix heures par jour</t>
+  </si>
+  <si>
+    <t>Détails pour portable</t>
+  </si>
+  <si>
+    <t>kWh par an</t>
   </si>
 </sst>
 </file>
@@ -676,7 +700,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -718,6 +742,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -779,7 +810,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -793,13 +824,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -977,13 +1015,13 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="27">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="26">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="24" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="25" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
     <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
@@ -993,6 +1031,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
@@ -1001,14 +1051,14 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
-    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -1016,18 +1066,18 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -1035,7 +1085,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -1047,12 +1097,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -1066,7 +1116,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1074,11 +1124,11 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
     <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
     <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
@@ -1087,15 +1137,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
     <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
@@ -1111,13 +1161,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1158,6 +1208,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
+  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
+    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
   <tableColumns count="3">
@@ -1169,7 +1230,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
   <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
   <tableColumns count="2">
@@ -1180,25 +1241,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
   <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8626B437-BE11-564F-9257-A11148F3C432}" name="Activité"/>
     <tableColumn id="2" xr3:uid="{28B2C82F-E3F8-4B4C-A7FD-E5A34C8261C4}" name="Mode téléviseur"/>
     <tableColumn id="3" xr3:uid="{796EE067-807D-394E-BE37-97CA2879F889}" name="Mode téléviseur2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3850,15 +3899,18 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="246" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3874,7 +3926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3882,10 +3934,54 @@
         <v>203</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="10">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41F772-1727-1E4C-B2ED-E4BD35EDE6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E31BB-1B66-7F4E-931C-D0B02597DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="5" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="2" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
     <sheet name="Unité" sheetId="2" r:id="rId2"/>
-    <sheet name="Lave-vaisselle" sheetId="6" r:id="rId3"/>
-    <sheet name="Chauffage" sheetId="10" r:id="rId4"/>
-    <sheet name="Salle d'eau" sheetId="11" r:id="rId5"/>
-    <sheet name="Ordinateur" sheetId="14" r:id="rId6"/>
-    <sheet name="Jeux" sheetId="12" r:id="rId7"/>
-    <sheet name="Piscine" sheetId="13" r:id="rId8"/>
-    <sheet name="Ampoule" sheetId="9" r:id="rId9"/>
-    <sheet name="Four" sheetId="5" r:id="rId10"/>
-    <sheet name="Réfrigérateur" sheetId="3" r:id="rId11"/>
-    <sheet name="Climatiseurs" sheetId="4" r:id="rId12"/>
-    <sheet name="Lave-linge" sheetId="7" r:id="rId13"/>
-    <sheet name="TV" sheetId="8" r:id="rId14"/>
+    <sheet name="Wifi" sheetId="15" r:id="rId3"/>
+    <sheet name="Lave-vaisselle" sheetId="6" r:id="rId4"/>
+    <sheet name="Chauffage" sheetId="10" r:id="rId5"/>
+    <sheet name="Salle d'eau" sheetId="11" r:id="rId6"/>
+    <sheet name="Ordinateur" sheetId="14" r:id="rId7"/>
+    <sheet name="Jeux" sheetId="12" r:id="rId8"/>
+    <sheet name="Piscine" sheetId="13" r:id="rId9"/>
+    <sheet name="Ampoule" sheetId="9" r:id="rId10"/>
+    <sheet name="Four" sheetId="5" r:id="rId11"/>
+    <sheet name="Réfrigérateur" sheetId="3" r:id="rId12"/>
+    <sheet name="Climatiseurs" sheetId="4" r:id="rId13"/>
+    <sheet name="Lave-linge" sheetId="7" r:id="rId14"/>
+    <sheet name="TV" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="241">
   <si>
     <t>Type</t>
   </si>
@@ -688,6 +689,134 @@
   </si>
   <si>
     <t>kWh par an</t>
+  </si>
+  <si>
+    <t>Fonctionnement</t>
+  </si>
+  <si>
+    <t>Puissance en Watt</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>On</t>
+    </r>
+  </si>
+  <si>
+    <t>2.6W</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standby</t>
+    </r>
+  </si>
+  <si>
+    <t>1.4W</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deep Standby</t>
+    </r>
+  </si>
+  <si>
+    <t>0.2W</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>0.06W</t>
+  </si>
+  <si>
+    <t>Consommation électrique annuelle</t>
+  </si>
+  <si>
+    <t>14.25kWh/Année</t>
+  </si>
+  <si>
+    <t>Consommation d’énergie TV-Box 5</t>
+  </si>
+  <si>
+    <t>Consommation d’énergie Swisscom Box 21</t>
+  </si>
+  <si>
+    <t>4.7W</t>
+  </si>
+  <si>
+    <t>2.1W</t>
+  </si>
+  <si>
+    <t>0.3W</t>
+  </si>
+  <si>
+    <t>0.03W</t>
+  </si>
+  <si>
+    <t>22.67kWh/Année</t>
+  </si>
+  <si>
+    <t>Consommation d’énergie Swisscom Box</t>
+  </si>
+  <si>
+    <t>5.1W</t>
+  </si>
+  <si>
+    <t>2.9W</t>
+  </si>
+  <si>
+    <t>29.02kWh/Année</t>
+  </si>
+  <si>
+    <t>Consommation d’énergie TV-Box (UHD)</t>
+  </si>
+  <si>
+    <t>5.7W</t>
+  </si>
+  <si>
+    <t>2.4W</t>
+  </si>
+  <si>
+    <t>26.4kWh/Année</t>
   </si>
 </sst>
 </file>
@@ -700,7 +829,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,11 +873,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF001155"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF001155"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF086ADB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0048CF"/>
+      <name val="Sdx-icons"/>
     </font>
   </fonts>
   <fills count="3">
@@ -810,7 +986,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,9 +1001,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1031,6 +1217,52 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
+  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
+    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C177E498-705F-9A49-A75B-55019BE23995}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{BFCD399C-6078-DD45-BED9-3C6798CB049D}" name="Playstation disque "/>
+    <tableColumn id="3" xr3:uid="{830DE64C-3942-1148-9B8B-146FC4943415}" name="Playstation édition numérique"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
+  <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{90E10555-0BEB-D846-863C-3A1EF4A1D694}" name="Mode"/>
+    <tableColumn id="2" xr3:uid="{473E53E4-C8BA-9445-ADC9-A56563A0FE13}" name="Consommation d'énergie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
+  <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8626B437-BE11-564F-9257-A11148F3C432}" name="Activité"/>
+    <tableColumn id="2" xr3:uid="{28B2C82F-E3F8-4B4C-A7FD-E5A34C8261C4}" name="Mode téléviseur"/>
+    <tableColumn id="3" xr3:uid="{796EE067-807D-394E-BE37-97CA2879F889}" name="Mode téléviseur2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
   <tableColumns count="3">
@@ -1042,7 +1274,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
@@ -1058,7 +1290,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -1077,7 +1309,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -1097,7 +1329,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
@@ -1116,7 +1348,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1137,7 +1369,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}" name="Tableau17" displayName="Tableau17" ref="A2:B8" totalsRowShown="0">
+  <autoFilter ref="A2:B8" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{85655046-9B75-B740-9775-BF72E9BC6C78}" name="Fonctionnement"/>
+    <tableColumn id="2" xr3:uid="{D530088B-78A2-0F47-8D66-A8DADF899C7D}" name="Puissance en Watt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
   <tableColumns count="7">
@@ -1153,7 +1396,40 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}" name="Tableau18" displayName="Tableau18" ref="A12:B18" totalsRowShown="0">
+  <autoFilter ref="A12:B18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{09B38706-01FD-8640-8710-B11490BB0B6A}" name="Fonctionnement"/>
+    <tableColumn id="2" xr3:uid="{EF3C9353-E8BD-CB4A-8DF5-44133988DA54}" name="Puissance en Watt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}" name="Tableau19" displayName="Tableau19" ref="A22:B27" totalsRowShown="0">
+  <autoFilter ref="A22:B27" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8A53B8DE-D39D-394F-8139-FD461B7416A1}" name="Fonctionnement"/>
+    <tableColumn id="2" xr3:uid="{D277CC50-4F45-9447-9D5B-AEA84932CBBD}" name="Puissance en Watt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}" name="Tableau20" displayName="Tableau20" ref="A31:B36" totalsRowShown="0">
+  <autoFilter ref="A31:B36" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4420AF7E-A47D-F54E-8E07-9562F73E1C1A}" name="Fonctionnement"/>
+    <tableColumn id="2" xr3:uid="{51EA448B-C6DC-BE44-8FC2-E18FDE29E305}" name="Puissance en Watt"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}" name="Tableau5" displayName="Tableau5" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1174,7 +1450,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
   <tableColumns count="2">
@@ -1185,7 +1461,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}" name="Tableau10" displayName="Tableau10" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}"/>
   <tableColumns count="2">
@@ -1196,58 +1472,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
   <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
     <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
-  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
-    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C177E498-705F-9A49-A75B-55019BE23995}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{BFCD399C-6078-DD45-BED9-3C6798CB049D}" name="Playstation disque "/>
-    <tableColumn id="3" xr3:uid="{830DE64C-3942-1148-9B8B-146FC4943415}" name="Playstation édition numérique"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
-  <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{90E10555-0BEB-D846-863C-3A1EF4A1D694}" name="Mode"/>
-    <tableColumn id="2" xr3:uid="{473E53E4-C8BA-9445-ADC9-A56563A0FE13}" name="Consommation d'énergie"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
-  <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8626B437-BE11-564F-9257-A11148F3C432}" name="Activité"/>
-    <tableColumn id="2" xr3:uid="{28B2C82F-E3F8-4B4C-A7FD-E5A34C8261C4}" name="Mode téléviseur"/>
-    <tableColumn id="3" xr3:uid="{796EE067-807D-394E-BE37-97CA2879F889}" name="Mode téléviseur2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1552,17 +1782,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63FCF9-2FAA-724C-B87C-1397049E8037}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +2045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1832,7 +2062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1845,8 +2075,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -1859,8 +2092,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -1874,7 +2110,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1887,8 +2123,11 @@
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1902,7 +2141,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1915,8 +2154,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1930,7 +2172,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1944,7 +2186,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1958,7 +2200,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1972,7 +2214,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -2051,6 +2293,185 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814AC702-0380-0F42-A92D-C865F5997215}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2061,7 +2482,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -2070,7 +2491,7 @@
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2116,7 +2537,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2139,7 +2560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2162,7 +2583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2185,7 +2606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2208,7 +2629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -2231,7 +2652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E13D1F-4834-6847-A491-6DFC91533A3D}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2354,13 +2775,13 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2438,7 +2859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2464,7 +2885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50ED13E-4303-EA4C-AC19-3E20A1D707DB}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2594,7 +3015,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -2604,7 +3025,7 @@
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -2636,7 +3057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2662,7 +3083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +3109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2711,7 +3132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2740,7 +3161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2769,7 +3190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2997,7 +3418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA1C16-8FA9-EA46-8D2C-24034D23CE2B}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3008,7 +3429,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3019,7 +3440,7 @@
     <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3048,7 +3469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -3077,7 +3498,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -3106,7 +3527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3135,7 +3556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3253,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FD38D-DF5A-4641-80B3-9B7A0EDD0D26}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3261,18 +3682,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +3716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -3318,7 +3739,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3341,7 +3762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -3364,7 +3785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -3455,13 +3876,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339A0DA-1FCD-7342-83B8-CBA496182805}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="319" workbookViewId="0">
+    <sheetView zoomScale="177" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3475,6 +3896,702 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA387D7-4870-6741-81CC-C7B8C9DFCB02}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="23">
+      <c r="A29" s="13"/>
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="23">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2" ht="23">
+      <c r="A38" s="13"/>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:2" ht="23">
+      <c r="A39" s="13"/>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:2" ht="23">
+      <c r="A40" s="13"/>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:2" ht="23">
+      <c r="A41" s="13"/>
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:2" ht="23">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:2" ht="23">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:2" ht="20">
+      <c r="A44" s="19"/>
+    </row>
+    <row r="48" spans="1:2" ht="20">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:1" ht="20">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="53" spans="1:1" ht="20">
+      <c r="A53" s="20"/>
+    </row>
+    <row r="54" spans="1:1" ht="20">
+      <c r="A54" s="20"/>
+    </row>
+    <row r="58" spans="1:1" ht="20">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:1" ht="20">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="63" spans="1:1" ht="20">
+      <c r="A63" s="20"/>
+    </row>
+    <row r="64" spans="1:1" ht="20">
+      <c r="A64" s="20"/>
+    </row>
+    <row r="68" spans="1:1" ht="20">
+      <c r="A68" s="20"/>
+    </row>
+    <row r="69" spans="1:1" ht="20">
+      <c r="A69" s="20"/>
+    </row>
+    <row r="73" spans="1:1" ht="20">
+      <c r="A73" s="20"/>
+    </row>
+    <row r="74" spans="1:1" ht="20">
+      <c r="A74" s="20"/>
+    </row>
+    <row r="78" spans="1:1" ht="20">
+      <c r="A78" s="20"/>
+    </row>
+    <row r="79" spans="1:1" ht="20">
+      <c r="A79" s="20"/>
+    </row>
+    <row r="81" spans="1:4" ht="20">
+      <c r="A81" s="20"/>
+    </row>
+    <row r="82" spans="1:4" ht="20">
+      <c r="A82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" ht="16" customHeight="1"/>
+    <row r="84" spans="1:4" ht="16" customHeight="1">
+      <c r="A84" s="20"/>
+    </row>
+    <row r="85" spans="1:4" ht="20">
+      <c r="A85" s="20"/>
+    </row>
+    <row r="86" spans="1:4" ht="16" customHeight="1"/>
+    <row r="87" spans="1:4" ht="16" customHeight="1"/>
+    <row r="89" spans="1:4">
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="23"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+    </row>
+    <row r="91" spans="1:4" ht="25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" ht="25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="1:4" ht="23">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+    </row>
+    <row r="94" spans="1:4" ht="23">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="95" spans="1:4" ht="23">
+      <c r="A95" s="16"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" ht="25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+    </row>
+    <row r="97" spans="1:4" ht="25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" customHeight="1">
+      <c r="A99" s="18"/>
+    </row>
+    <row r="100" spans="1:4" ht="23">
+      <c r="A100" s="16"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+    </row>
+    <row r="101" spans="1:4" ht="16" customHeight="1">
+      <c r="A101" s="22"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:4" ht="16" customHeight="1">
+      <c r="A102" s="22"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:4" ht="23">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="23"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+    </row>
+    <row r="106" spans="1:4" ht="23">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:4" ht="23">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:4" ht="23">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+    </row>
+    <row r="109" spans="1:4" ht="23">
+      <c r="A109" s="16"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" ht="23">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:4" ht="25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:4" ht="23">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" ht="23">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" ht="23">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" ht="23">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" ht="23">
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
+    </row>
+    <row r="117" spans="1:4" ht="23">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="1:4" ht="23">
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" ht="23">
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" ht="23">
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+    </row>
+    <row r="122" spans="1:4" ht="23">
+      <c r="A122" s="16"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="123" spans="1:4" ht="25">
+      <c r="A123" s="22"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+    </row>
+    <row r="124" spans="1:4" ht="25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+    </row>
+    <row r="125" spans="1:4" ht="23">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+    </row>
+    <row r="126" spans="1:4" ht="23">
+      <c r="A126" s="18"/>
+    </row>
+    <row r="127" spans="1:4" ht="23">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="21"/>
+    </row>
+    <row r="128" spans="1:4" ht="23">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+    </row>
+    <row r="129" spans="1:3" ht="25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+    </row>
+    <row r="130" spans="1:3" ht="23">
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+    </row>
+    <row r="131" spans="1:3" ht="23">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+    </row>
+    <row r="132" spans="1:3" ht="23">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+    </row>
+    <row r="133" spans="1:3" ht="25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+    </row>
+    <row r="134" spans="1:3" ht="23">
+      <c r="A134" s="17"/>
+      <c r="B134" s="18"/>
+    </row>
+    <row r="135" spans="1:3" ht="20">
+      <c r="A135" s="19"/>
+    </row>
+    <row r="139" spans="1:3" ht="20">
+      <c r="A139" s="20"/>
+    </row>
+    <row r="140" spans="1:3" ht="20">
+      <c r="A140" s="20"/>
+    </row>
+    <row r="144" spans="1:3" ht="20">
+      <c r="A144" s="20"/>
+    </row>
+    <row r="145" spans="1:3" ht="20">
+      <c r="A145" s="20"/>
+    </row>
+    <row r="149" spans="1:3" ht="20">
+      <c r="A149" s="20"/>
+    </row>
+    <row r="150" spans="1:3" ht="20">
+      <c r="A150" s="20"/>
+    </row>
+    <row r="156" spans="1:3" ht="23">
+      <c r="A156" s="16"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+    </row>
+    <row r="157" spans="1:3" ht="25">
+      <c r="A157" s="22"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+    </row>
+    <row r="158" spans="1:3" ht="25">
+      <c r="A158" s="22"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+    </row>
+    <row r="159" spans="1:3" ht="23">
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
+    </row>
+    <row r="160" spans="1:3" ht="23">
+      <c r="A160" s="16"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+    </row>
+    <row r="161" spans="1:3" ht="25">
+      <c r="A161" s="22"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+    </row>
+    <row r="162" spans="1:3" ht="25">
+      <c r="A162" s="22"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+    </row>
+    <row r="163" spans="1:3" ht="23">
+      <c r="A163" s="17"/>
+      <c r="B163" s="18"/>
+    </row>
+    <row r="164" spans="1:3" ht="23">
+      <c r="A164" s="16"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+    </row>
+    <row r="165" spans="1:3" ht="25">
+      <c r="A165" s="22"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+    </row>
+    <row r="166" spans="1:3" ht="25">
+      <c r="A166" s="22"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+    </row>
+    <row r="167" spans="1:3" ht="23">
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+    </row>
+    <row r="168" spans="1:3" ht="23">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="1:3" ht="23">
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
+    </row>
+    <row r="170" spans="1:3" ht="23">
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
+    </row>
+    <row r="172" spans="1:3" ht="23">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="1:3" ht="23">
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+    </row>
+    <row r="174" spans="1:3" ht="23">
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+    </row>
+    <row r="175" spans="1:3" ht="23">
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+    </row>
+    <row r="177" spans="1:2" ht="23">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="1:2" ht="23">
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
+    </row>
+    <row r="179" spans="1:2" ht="23">
+      <c r="A179" s="17"/>
+      <c r="B179" s="18"/>
+    </row>
+    <row r="180" spans="1:2" ht="23">
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8E113-C9BE-B54E-8C4B-765BF9509E84}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3485,14 +4602,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3521,7 +4638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3550,7 +4667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -3579,7 +4696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -3608,7 +4725,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +4868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3762,13 +4879,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3776,7 +4893,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3790,7 +4907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -3798,7 +4915,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3806,7 +4923,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -3814,7 +4931,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3830,7 +4947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5308A4-D575-5C4C-9F39-4902AFAE4E68}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3841,12 +4958,12 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3854,7 +4971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -3862,7 +4979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -3870,7 +4987,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3878,7 +4995,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -3894,23 +5011,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294B5806-9E4C-244C-8AE2-E94C6ABE62A7}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="246" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="246" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +5035,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3926,7 +5043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3934,18 +5051,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:3" ht="34">
+      <c r="A7" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -3953,7 +5070,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -3961,7 +5078,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -3969,7 +5086,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -3986,7 +5103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40677561-A7CB-4E40-B7D5-373AC982D89E}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -3997,14 +5114,14 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +5132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -4026,7 +5143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -4037,7 +5154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -4048,7 +5165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -4059,7 +5176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -4070,12 +5187,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4083,7 +5200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -4091,7 +5208,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -4099,7 +5216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -4107,7 +5224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -4115,12 +5232,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>182</v>
       </c>
@@ -4128,7 +5245,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -4139,7 +5256,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -4150,7 +5267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -4161,7 +5278,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -4182,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE293B9-7566-2949-A749-D3685483E9D2}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -4193,14 +5310,14 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -4211,7 +5328,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -4222,7 +5339,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -4233,7 +5350,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -4306,183 +5423,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3120D-F616-824E-A569-A8E06DE92FD3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6.95</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7.95</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12.95</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>19.95</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C7</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E31BB-1B66-7F4E-931C-D0B02597DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E392F4-0F70-AC4D-ADE1-31AEFB2F6FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="2" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="10" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -2299,13 +2299,13 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView zoomScale="211" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2478,7 +2478,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -3902,13 +3902,13 @@
   </sheetPr>
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5018,7 +5018,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="246" workbookViewId="0">
+    <sheetView zoomScale="219" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E392F4-0F70-AC4D-ADE1-31AEFB2F6FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8E205-C1BF-B144-9ACA-2C6BC334BF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="10" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="18120" yWindow="880" windowWidth="17880" windowHeight="22500" firstSheet="4" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="229">
   <si>
     <t>Type</t>
   </si>
@@ -711,9 +711,6 @@
     </r>
   </si>
   <si>
-    <t>2.6W</t>
-  </si>
-  <si>
     <r>
       <t>P</t>
     </r>
@@ -728,9 +725,6 @@
     </r>
   </si>
   <si>
-    <t>1.4W</t>
-  </si>
-  <si>
     <r>
       <t>P</t>
     </r>
@@ -759,15 +753,9 @@
     </r>
   </si>
   <si>
-    <t>0.2W</t>
-  </si>
-  <si>
     <t>Off</t>
   </si>
   <si>
-    <t>0.06W</t>
-  </si>
-  <si>
     <t>Consommation électrique annuelle</t>
   </si>
   <si>
@@ -780,43 +768,19 @@
     <t>Consommation d’énergie Swisscom Box 21</t>
   </si>
   <si>
-    <t>4.7W</t>
-  </si>
-  <si>
-    <t>2.1W</t>
-  </si>
-  <si>
-    <t>0.3W</t>
-  </si>
-  <si>
-    <t>0.03W</t>
-  </si>
-  <si>
-    <t>22.67kWh/Année</t>
-  </si>
-  <si>
     <t>Consommation d’énergie Swisscom Box</t>
   </si>
   <si>
-    <t>5.1W</t>
-  </si>
-  <si>
-    <t>2.9W</t>
-  </si>
-  <si>
-    <t>29.02kWh/Année</t>
-  </si>
-  <si>
     <t>Consommation d’énergie TV-Box (UHD)</t>
   </si>
   <si>
-    <t>5.7W</t>
-  </si>
-  <si>
-    <t>2.4W</t>
-  </si>
-  <si>
-    <t>26.4kWh/Année</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>kWh/Année</t>
+  </si>
+  <si>
+    <t>PDeep Standby</t>
   </si>
 </sst>
 </file>
@@ -829,7 +793,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,8 +890,22 @@
       <color rgb="FF0048CF"/>
       <name val="Sdx-icons"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,8 +918,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -980,13 +970,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1012,17 +1052,56 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF8EA9DB"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF8EA9DB"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8EA9DB"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1035,17 +1114,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FFBDC1C6"/>
-        <name val="Arial"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1054,33 +1138,41 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FFBDC1C6"/>
-        <name val="Arial"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FFBDC1C6"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1092,10 +1184,10 @@
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
@@ -1154,6 +1246,67 @@
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFBDC1C6"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1197,17 +1350,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}" name="Tableau1" displayName="Tableau1" ref="A1:G23" totalsRowShown="0">
   <autoFilter ref="A1:G23" xr:uid="{E7BAB815-F1B9-804A-859E-05E117765DFB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
-    <sortCondition ref="G1:G23"/>
+    <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A48EABA4-6C46-1A4E-93BC-545E29232E98}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{F4F9A5DA-9F59-5249-ADE9-5DB0456BCC1D}" name="Construction" dataDxfId="33">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{4F7DAD85-2774-774A-8AC1-AF2CFC861B54}" name="Usage (val)" dataDxfId="32">
       <calculatedColumnFormula>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="25" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{969C8F93-53FD-1F4A-804A-CE581F622DE2}" name="Usage" dataDxfId="31" dataCellStyle="Pourcentage"/>
     <tableColumn id="4" xr3:uid="{914CFA8E-706E-E343-8E29-736A9C38C805}" name="Total"/>
     <tableColumn id="5" xr3:uid="{788308D2-CC5D-CB46-B121-9B7602E17323}" name="Durée de vie"/>
     <tableColumn id="6" xr3:uid="{6D465389-2929-C149-9D41-4D69547952F8}" name="Détails"/>
@@ -1217,17 +1370,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
-  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
-    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
+  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
+    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
   <tableColumns count="3">
@@ -1239,7 +1403,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
   <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
   <tableColumns count="2">
@@ -1250,7 +1414,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
   <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
   <tableColumns count="3">
@@ -1262,19 +1426,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}" name="Tableau8" displayName="Tableau8" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{F3053EDF-E19E-144B-BAD5-7855CE93DCBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
@@ -1283,14 +1447,14 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
-    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}" name="Tableau4" displayName="Tableau4" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8" xr:uid="{A6EB69F0-2101-0446-AE26-4C8E07F005AE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
@@ -1298,18 +1462,18 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}" name="Tableau2" displayName="Tableau2" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{FBC50C55-FFE7-4B48-AB5F-06FA626D84EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H5">
@@ -1317,7 +1481,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -1329,12 +1493,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -1348,7 +1512,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}" name="Tableau17" displayName="Tableau17" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{85655046-9B75-B740-9775-BF72E9BC6C78}" name="Fonctionnement"/>
+    <tableColumn id="2" xr3:uid="{D530088B-78A2-0F47-8D66-A8DADF899C7D}" name="Puissance en Watt"/>
+    <tableColumn id="3" xr3:uid="{AD5B3430-51C1-4740-B833-5754FC079DC2}" name="Unité"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}" name="Tableau6" displayName="Tableau6" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{7901FD33-F12D-2940-AE89-8138BC38CBF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1356,7 +1532,7 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
@@ -1369,26 +1545,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}" name="Tableau17" displayName="Tableau17" ref="A2:B8" totalsRowShown="0">
-  <autoFilter ref="A2:B8" xr:uid="{302E699B-F19C-2844-8ABD-ED1249A3001C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85655046-9B75-B740-9775-BF72E9BC6C78}" name="Fonctionnement"/>
-    <tableColumn id="2" xr3:uid="{D530088B-78A2-0F47-8D66-A8DADF899C7D}" name="Puissance en Watt"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}" name="Tableau7" displayName="Tableau7" ref="A1:G5" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{7C139D9F-13E9-6C45-99E9-DE43395DEBF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+    <sortCondition ref="D1:D5"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
     <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
@@ -1397,39 +1565,56 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}" name="Tableau18" displayName="Tableau18" ref="A12:B18" totalsRowShown="0">
-  <autoFilter ref="A12:B18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}" name="Tableau18" displayName="Tableau18" ref="A12:C18" totalsRowShown="0">
+  <autoFilter ref="A12:C18" xr:uid="{0D9ECA98-5247-B947-88E2-664A50BF8F72}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{09B38706-01FD-8640-8710-B11490BB0B6A}" name="Fonctionnement"/>
     <tableColumn id="2" xr3:uid="{EF3C9353-E8BD-CB4A-8DF5-44133988DA54}" name="Puissance en Watt"/>
+    <tableColumn id="3" xr3:uid="{B70CF8E2-D616-B340-BFA6-FCA9393B1247}" name="Unité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}" name="Tableau19" displayName="Tableau19" ref="A22:B27" totalsRowShown="0">
-  <autoFilter ref="A22:B27" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}" name="Tableau19" displayName="Tableau19" ref="A22:C28" totalsRowShown="0">
+  <autoFilter ref="A22:C28" xr:uid="{753FF5F4-0BED-0543-8EB3-12E5FE42AF8A}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8A53B8DE-D39D-394F-8139-FD461B7416A1}" name="Fonctionnement"/>
     <tableColumn id="2" xr3:uid="{D277CC50-4F45-9447-9D5B-AEA84932CBBD}" name="Puissance en Watt"/>
+    <tableColumn id="3" xr3:uid="{945D52EC-B2F9-4843-8634-BA5E757BDADA}" name="Unité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}" name="Tableau20" displayName="Tableau20" ref="A31:B36" totalsRowShown="0">
-  <autoFilter ref="A31:B36" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}" name="Tableau20" displayName="Tableau20" ref="A32:C38" totalsRowShown="0">
+  <autoFilter ref="A32:C38" xr:uid="{877ADE64-0970-334F-AD71-BA23DBA614AA}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4420AF7E-A47D-F54E-8E07-9562F73E1C1A}" name="Fonctionnement"/>
     <tableColumn id="2" xr3:uid="{51EA448B-C6DC-BE44-8FC2-E18FDE29E305}" name="Puissance en Watt"/>
+    <tableColumn id="3" xr3:uid="{B0D86B47-C313-5440-B83A-1A6A508A72E3}" name="Unité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BF02EAA0-2AA5-5644-8FE3-6A4A6B40DBB4}" name="Tableau22" displayName="Tableau22" ref="F12:H18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="F12:H18" xr:uid="{BF02EAA0-2AA5-5644-8FE3-6A4A6B40DBB4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8CF88E73-9A47-2743-A35C-78C1E487A6A4}" name="Fonctionnement" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B17F8284-D9BE-4045-8EA5-F3C7EA740A9F}" name="Puissance en Watt" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(B3,Tableau18[[#This Row],[Puissance en Watt]],B23,B33)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2084A2AF-DEA1-124B-9AF5-65C5C18254F1}" name="Unité" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}" name="Tableau5" displayName="Tableau5" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{05F53DA8-6F11-3B41-B7AE-39BB70FFF10B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
@@ -1437,20 +1622,20 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="25"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
   <tableColumns count="2">
@@ -1461,23 +1646,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}" name="Tableau10" displayName="Tableau10" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{79959E98-D89E-434A-9E0E-3AE6CB43F536}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{E400A699-ABD5-234D-943E-F79111A01D50}" name="Consommation"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1782,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63FCF9-2FAA-724C-B87C-1397049E8037}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A2" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1816,255 +1990,225 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>238.38</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>109.62</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.315</v>
-      </c>
-      <c r="E2">
-        <v>348</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="G2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>137.38499999999999</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>75.614999999999995</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E3">
-        <v>213</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>243.53800000000001</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>219.46199999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.47399999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4">
-        <v>463</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>254.84899999999999</v>
+        <v>9.634999999999998</v>
       </c>
       <c r="C5" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>88.150999999999996</v>
+        <v>31.365000000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>0.25700000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E5">
-        <v>343</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>47</v>
+        <v>21.978000000000009</v>
       </c>
       <c r="C6" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>176.02199999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.88900000000000001</v>
+      </c>
       <c r="E6">
-        <v>47</v>
+        <v>198</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>9.634999999999998</v>
+        <v>47.123999999999995</v>
       </c>
       <c r="C7" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>31.365000000000002</v>
+        <v>139.876</v>
       </c>
       <c r="D7" s="3">
-        <v>0.76500000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>21.978000000000009</v>
+        <v>31.395999999999987</v>
       </c>
       <c r="C8" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>176.02199999999999</v>
+        <v>135.60400000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>0.88900000000000001</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E8">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>47.123999999999995</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>139.876</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.748</v>
-      </c>
-      <c r="E9">
-        <v>187</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="G9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>31.395999999999987</v>
+        <v>238.38</v>
       </c>
       <c r="C10" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>135.60400000000001</v>
+        <v>109.62</v>
       </c>
       <c r="D10" s="3">
-        <v>0.81200000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="E10">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B11" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>296.00099999999998</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>216.999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E11">
-        <v>513</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>94</v>
+      <c r="A12" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>0</v>
+        <v>137.38499999999999</v>
       </c>
       <c r="C12" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>75.614999999999995</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E12">
+        <v>213</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
       <c r="G12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2075,13 +2219,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2092,13 +2233,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B15" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2111,38 +2249,57 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>98</v>
+      <c r="A16" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>0</v>
+        <v>296.00099999999998</v>
       </c>
       <c r="C16" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>216.999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E16">
+        <v>513</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>99</v>
+      <c r="A17" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>0</v>
+        <v>243.53800000000001</v>
       </c>
       <c r="C17" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>219.46199999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E17">
+        <v>463</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="4">
@@ -2159,8 +2316,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>101</v>
+      <c r="A19" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2171,24 +2328,38 @@
         <v>0</v>
       </c>
       <c r="D19" s="3"/>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>102</v>
+      <c r="A20" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
-        <v>0</v>
+        <v>254.84899999999999</v>
       </c>
       <c r="C20" s="4">
         <f>Tableau1[[#This Row],[Total]]*Tableau1[[#This Row],[Usage]]</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>88.150999999999996</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E20">
+        <v>343</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>103</v>
+      <c r="A21" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2199,10 +2370,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="3"/>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2215,8 +2389,8 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>105</v>
+      <c r="A23" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="4">
         <f>Tableau1[[#This Row],[Total]]-Tableau1[[#This Row],[Usage]]*Tableau1[[#This Row],[Total]]</f>
@@ -2408,6 +2582,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -2422,20 +2610,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3EECB9F-75F9-6D43-B798-5B2902F15616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2443,6 +2617,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{63443029-E10D-9E4F-A24B-7C6F4DBEED9A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2453,17 +2638,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D2:D7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3EECB9F-75F9-6D43-B798-5B2902F15616}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2478,7 +2652,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+    <sheetView zoomScale="170" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -2772,7 +2946,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3586,16 +3760,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
+          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3614,16 +3788,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ACD14C9-8CC1-3142-A969-2CA2CC135847}</x14:id>
+          <x14:id>{DF7B54A4-988C-9F4A-BE71-C983A65160FE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3636,7 +3810,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
+          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3644,7 +3818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H5</xm:sqref>
+          <xm:sqref>D2:D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95F3312C-13CF-EC4F-B198-E2DB516C1D45}">
@@ -3658,7 +3832,7 @@
           <xm:sqref>G2:G5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ACD14C9-8CC1-3142-A969-2CA2CC135847}">
+          <x14:cfRule type="dataBar" id="{DF7B54A4-988C-9F4A-BE71-C983A65160FE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3666,7 +3840,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3681,7 +3855,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="143" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3741,48 +3915,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="5">
-        <v>949.9</v>
+        <v>299.95</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D3" s="10">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5">
-        <v>299.95</v>
+        <v>949.9</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E4" s="10">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
         <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3809,6 +3983,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -3823,20 +4011,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90C5E6A6-A26E-D342-B701-4433D1334250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3844,6 +4018,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3CD5DF4-649D-934D-A726-1F96341F93F8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -3854,17 +4039,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E2:E5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90C5E6A6-A26E-D342-B701-4433D1334250}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D2:D5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3900,693 +4074,863 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" t="s">
         <v>215</v>
       </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
+      <c r="B13">
+        <v>4.7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(B3,Tableau18[[#This Row],[Puissance en Watt]],B23,B33)</f>
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14">
+        <v>2.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(B4,Tableau18[[#This Row],[Puissance en Watt]],B24,B34)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" t="s">
         <v>217</v>
       </c>
-      <c r="B14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>2.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(B5,Tableau18[[#This Row],[Puissance en Watt]],B25,B35)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(B6,Tableau18[[#This Row],[Puissance en Watt]],B26,B36)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>219</v>
       </c>
-      <c r="B15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0.03</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(B7,Tableau18[[#This Row],[Puissance en Watt]],B27,B37)</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>220</v>
       </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23">
+      <c r="B18">
+        <v>22.67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(B8,Tableau18[[#This Row],[Puissance en Watt]],B28,B38)</f>
+        <v>26.03</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="23">
       <c r="A20" s="13"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>213</v>
       </c>
       <c r="B22" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" t="s">
         <v>215</v>
       </c>
-      <c r="B23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18">
+      <c r="B23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
       <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24">
+        <v>2.9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
+      <c r="A25" t="s">
         <v>217</v>
       </c>
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>2.9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>219</v>
       </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="23">
-      <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B27">
+        <v>0.06</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28">
+        <v>29.02</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="23">
+      <c r="A30" s="13"/>
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>213</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" t="s">
         <v>215</v>
       </c>
-      <c r="B32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>5.7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34">
+        <v>2.4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35" t="s">
         <v>217</v>
       </c>
-      <c r="B33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>2.4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="23">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="1:2" ht="23">
-      <c r="A38" s="13"/>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:2" ht="23">
-      <c r="A39" s="13"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" spans="1:2" ht="23">
+      <c r="B37">
+        <v>0.06</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38">
+        <v>26.4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:3" ht="23">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
     </row>
-    <row r="41" spans="1:2" ht="23">
+    <row r="41" spans="1:3" ht="23">
       <c r="A41" s="13"/>
       <c r="B41" s="18"/>
     </row>
-    <row r="42" spans="1:2" ht="23">
-      <c r="A42" s="17"/>
+    <row r="42" spans="1:3" ht="23">
+      <c r="A42" s="13"/>
       <c r="B42" s="18"/>
     </row>
-    <row r="43" spans="1:2" ht="23">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:3" ht="23">
+      <c r="A43" s="13"/>
       <c r="B43" s="18"/>
     </row>
-    <row r="44" spans="1:2" ht="20">
-      <c r="A44" s="19"/>
-    </row>
-    <row r="48" spans="1:2" ht="20">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1" ht="20">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="53" spans="1:1" ht="20">
-      <c r="A53" s="20"/>
-    </row>
-    <row r="54" spans="1:1" ht="20">
-      <c r="A54" s="20"/>
-    </row>
-    <row r="58" spans="1:1" ht="20">
-      <c r="A58" s="20"/>
-    </row>
-    <row r="59" spans="1:1" ht="20">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="63" spans="1:1" ht="20">
-      <c r="A63" s="20"/>
-    </row>
-    <row r="64" spans="1:1" ht="20">
-      <c r="A64" s="20"/>
-    </row>
-    <row r="68" spans="1:1" ht="20">
-      <c r="A68" s="20"/>
-    </row>
-    <row r="69" spans="1:1" ht="20">
-      <c r="A69" s="20"/>
-    </row>
-    <row r="73" spans="1:1" ht="20">
-      <c r="A73" s="20"/>
-    </row>
-    <row r="74" spans="1:1" ht="20">
-      <c r="A74" s="20"/>
-    </row>
-    <row r="78" spans="1:1" ht="20">
-      <c r="A78" s="20"/>
-    </row>
-    <row r="79" spans="1:1" ht="20">
-      <c r="A79" s="20"/>
+    <row r="44" spans="1:3" ht="23">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" ht="23">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" ht="20">
+      <c r="A46" s="19"/>
+    </row>
+    <row r="50" spans="1:1" ht="20">
+      <c r="A50" s="20"/>
+    </row>
+    <row r="51" spans="1:1" ht="20">
+      <c r="A51" s="20"/>
+    </row>
+    <row r="55" spans="1:1" ht="20">
+      <c r="A55" s="20"/>
+    </row>
+    <row r="56" spans="1:1" ht="20">
+      <c r="A56" s="20"/>
+    </row>
+    <row r="60" spans="1:1" ht="20">
+      <c r="A60" s="20"/>
+    </row>
+    <row r="61" spans="1:1" ht="20">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="65" spans="1:1" ht="20">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" ht="20">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="70" spans="1:1" ht="20">
+      <c r="A70" s="20"/>
+    </row>
+    <row r="71" spans="1:1" ht="20">
+      <c r="A71" s="20"/>
+    </row>
+    <row r="75" spans="1:1" ht="20">
+      <c r="A75" s="20"/>
+    </row>
+    <row r="76" spans="1:1" ht="20">
+      <c r="A76" s="20"/>
+    </row>
+    <row r="80" spans="1:1" ht="20">
+      <c r="A80" s="20"/>
     </row>
     <row r="81" spans="1:4" ht="20">
       <c r="A81" s="20"/>
     </row>
-    <row r="82" spans="1:4" ht="20">
-      <c r="A82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" ht="16" customHeight="1"/>
-    <row r="84" spans="1:4" ht="16" customHeight="1">
+    <row r="83" spans="1:4" ht="20">
+      <c r="A83" s="20"/>
+    </row>
+    <row r="84" spans="1:4" ht="20">
       <c r="A84" s="20"/>
     </row>
-    <row r="85" spans="1:4" ht="20">
-      <c r="A85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" ht="16" customHeight="1"/>
-    <row r="87" spans="1:4" ht="16" customHeight="1"/>
-    <row r="89" spans="1:4">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-    </row>
-    <row r="91" spans="1:4" ht="25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-    </row>
-    <row r="92" spans="1:4" ht="25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-    </row>
-    <row r="93" spans="1:4" ht="23">
-      <c r="A93" s="17"/>
+    <row r="85" spans="1:4" ht="16" customHeight="1"/>
+    <row r="86" spans="1:4" ht="16" customHeight="1">
+      <c r="A86" s="20"/>
+    </row>
+    <row r="87" spans="1:4" ht="20">
+      <c r="A87" s="20"/>
+    </row>
+    <row r="88" spans="1:4" ht="16" customHeight="1"/>
+    <row r="89" spans="1:4" ht="16" customHeight="1"/>
+    <row r="91" spans="1:4">
+      <c r="A91" s="25"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="25"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+    </row>
+    <row r="93" spans="1:4" ht="25">
+      <c r="A93" s="22"/>
       <c r="B93" s="18"/>
-    </row>
-    <row r="94" spans="1:4" ht="23">
-      <c r="A94" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+    </row>
+    <row r="94" spans="1:4" ht="25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" ht="23">
-      <c r="A95" s="16"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:4" ht="25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-    </row>
-    <row r="97" spans="1:4" ht="25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-    </row>
-    <row r="98" spans="1:4" ht="16" customHeight="1">
-      <c r="A98" s="17"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+    </row>
+    <row r="96" spans="1:4" ht="23">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="97" spans="1:4" ht="23">
+      <c r="A97" s="16"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" ht="25">
+      <c r="A98" s="22"/>
       <c r="B98" s="18"/>
-    </row>
-    <row r="99" spans="1:4" ht="16" customHeight="1">
-      <c r="A99" s="18"/>
-    </row>
-    <row r="100" spans="1:4" ht="23">
-      <c r="A100" s="16"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+    </row>
+    <row r="99" spans="1:4" ht="25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="1:4" ht="16" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
     </row>
     <row r="101" spans="1:4" ht="16" customHeight="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-    </row>
-    <row r="102" spans="1:4" ht="16" customHeight="1">
-      <c r="A102" s="22"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-    </row>
-    <row r="103" spans="1:4" ht="23">
-      <c r="A103" s="17"/>
+      <c r="A101" s="18"/>
+    </row>
+    <row r="102" spans="1:4" ht="23">
+      <c r="A102" s="16"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+    </row>
+    <row r="103" spans="1:4" ht="16" customHeight="1">
+      <c r="A103" s="22"/>
       <c r="B103" s="18"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-    </row>
-    <row r="106" spans="1:4" ht="23">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:4" ht="23">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:4" ht="16" customHeight="1">
+      <c r="A104" s="22"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:4" ht="23">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="25"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="25"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
     </row>
     <row r="108" spans="1:4" ht="23">
-      <c r="A108" s="17"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:4" ht="23">
-      <c r="A109" s="16"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:4" ht="23">
-      <c r="A110" s="18"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-    </row>
-    <row r="111" spans="1:4" ht="25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
+    </row>
+    <row r="111" spans="1:4" ht="23">
+      <c r="A111" s="16"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
     </row>
     <row r="112" spans="1:4" ht="23">
-      <c r="A112" s="17"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="18"/>
-    </row>
-    <row r="113" spans="1:4" ht="23">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" ht="25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="23">
-      <c r="A114" s="18"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="18"/>
     </row>
     <row r="115" spans="1:4" ht="23">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="23">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
     </row>
     <row r="117" spans="1:4" ht="23">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="23">
-      <c r="A118" s="17"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="23">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="23">
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
     </row>
+    <row r="121" spans="1:4" ht="23">
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
+    </row>
     <row r="122" spans="1:4" ht="23">
-      <c r="A122" s="16"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-    </row>
-    <row r="123" spans="1:4" ht="25">
-      <c r="A123" s="22"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-    </row>
-    <row r="124" spans="1:4" ht="25">
-      <c r="A124" s="22"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-    </row>
-    <row r="125" spans="1:4" ht="23">
-      <c r="A125" s="17"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
+    </row>
+    <row r="124" spans="1:4" ht="23">
+      <c r="A124" s="16"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:4" ht="25">
+      <c r="A125" s="22"/>
       <c r="B125" s="18"/>
-    </row>
-    <row r="126" spans="1:4" ht="23">
-      <c r="A126" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+    </row>
+    <row r="126" spans="1:4" ht="25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:4" ht="23">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="21"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
     </row>
     <row r="128" spans="1:4" ht="23">
       <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-    </row>
-    <row r="129" spans="1:3" ht="25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
+    </row>
+    <row r="129" spans="1:3" ht="23">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="21"/>
     </row>
     <row r="130" spans="1:3" ht="23">
-      <c r="A130" s="17"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="18"/>
-    </row>
-    <row r="131" spans="1:3" ht="23">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
+      <c r="C130" s="18"/>
+    </row>
+    <row r="131" spans="1:3" ht="25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
     </row>
     <row r="132" spans="1:3" ht="23">
-      <c r="A132" s="18"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-    </row>
-    <row r="133" spans="1:3" ht="25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+    </row>
+    <row r="133" spans="1:3" ht="23">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:3" ht="23">
-      <c r="A134" s="17"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="18"/>
-    </row>
-    <row r="135" spans="1:3" ht="20">
-      <c r="A135" s="19"/>
-    </row>
-    <row r="139" spans="1:3" ht="20">
-      <c r="A139" s="20"/>
-    </row>
-    <row r="140" spans="1:3" ht="20">
-      <c r="A140" s="20"/>
-    </row>
-    <row r="144" spans="1:3" ht="20">
-      <c r="A144" s="20"/>
-    </row>
-    <row r="145" spans="1:3" ht="20">
-      <c r="A145" s="20"/>
-    </row>
-    <row r="149" spans="1:3" ht="20">
-      <c r="A149" s="20"/>
-    </row>
-    <row r="150" spans="1:3" ht="20">
-      <c r="A150" s="20"/>
-    </row>
-    <row r="156" spans="1:3" ht="23">
-      <c r="A156" s="16"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-    </row>
-    <row r="157" spans="1:3" ht="25">
-      <c r="A157" s="22"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-    </row>
-    <row r="158" spans="1:3" ht="25">
-      <c r="A158" s="22"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-    </row>
-    <row r="159" spans="1:3" ht="23">
-      <c r="A159" s="17"/>
+      <c r="C134" s="18"/>
+    </row>
+    <row r="135" spans="1:3" ht="25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+    </row>
+    <row r="136" spans="1:3" ht="23">
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+    </row>
+    <row r="137" spans="1:3" ht="20">
+      <c r="A137" s="19"/>
+    </row>
+    <row r="141" spans="1:3" ht="20">
+      <c r="A141" s="20"/>
+    </row>
+    <row r="142" spans="1:3" ht="20">
+      <c r="A142" s="20"/>
+    </row>
+    <row r="146" spans="1:3" ht="20">
+      <c r="A146" s="20"/>
+    </row>
+    <row r="147" spans="1:3" ht="20">
+      <c r="A147" s="20"/>
+    </row>
+    <row r="151" spans="1:3" ht="20">
+      <c r="A151" s="20"/>
+    </row>
+    <row r="152" spans="1:3" ht="20">
+      <c r="A152" s="20"/>
+    </row>
+    <row r="158" spans="1:3" ht="23">
+      <c r="A158" s="16"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+    </row>
+    <row r="159" spans="1:3" ht="25">
+      <c r="A159" s="22"/>
       <c r="B159" s="18"/>
-    </row>
-    <row r="160" spans="1:3" ht="23">
-      <c r="A160" s="16"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-    </row>
-    <row r="161" spans="1:3" ht="25">
-      <c r="A161" s="22"/>
+      <c r="C159" s="18"/>
+    </row>
+    <row r="160" spans="1:3" ht="25">
+      <c r="A160" s="22"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+    </row>
+    <row r="161" spans="1:3" ht="23">
+      <c r="A161" s="17"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-    </row>
-    <row r="162" spans="1:3" ht="25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-    </row>
-    <row r="163" spans="1:3" ht="23">
-      <c r="A163" s="17"/>
+    </row>
+    <row r="162" spans="1:3" ht="23">
+      <c r="A162" s="16"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+    </row>
+    <row r="163" spans="1:3" ht="25">
+      <c r="A163" s="22"/>
       <c r="B163" s="18"/>
-    </row>
-    <row r="164" spans="1:3" ht="23">
-      <c r="A164" s="16"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-    </row>
-    <row r="165" spans="1:3" ht="25">
-      <c r="A165" s="22"/>
+      <c r="C163" s="18"/>
+    </row>
+    <row r="164" spans="1:3" ht="25">
+      <c r="A164" s="22"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+    </row>
+    <row r="165" spans="1:3" ht="23">
+      <c r="A165" s="17"/>
       <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-    </row>
-    <row r="166" spans="1:3" ht="25">
-      <c r="A166" s="22"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-    </row>
-    <row r="167" spans="1:3" ht="23">
-      <c r="A167" s="17"/>
+    </row>
+    <row r="166" spans="1:3" ht="23">
+      <c r="A166" s="16"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+    </row>
+    <row r="167" spans="1:3" ht="25">
+      <c r="A167" s="22"/>
       <c r="B167" s="18"/>
-    </row>
-    <row r="168" spans="1:3" ht="23">
-      <c r="A168" s="16"/>
-      <c r="B168" s="16"/>
+      <c r="C167" s="18"/>
+    </row>
+    <row r="168" spans="1:3" ht="25">
+      <c r="A168" s="22"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
     </row>
     <row r="169" spans="1:3" ht="23">
       <c r="A169" s="17"/>
       <c r="B169" s="18"/>
     </row>
     <row r="170" spans="1:3" ht="23">
-      <c r="A170" s="17"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="1:3" ht="23">
+      <c r="A171" s="17"/>
+      <c r="B171" s="18"/>
     </row>
     <row r="172" spans="1:3" ht="23">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16"/>
-    </row>
-    <row r="173" spans="1:3" ht="23">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
     </row>
     <row r="174" spans="1:3" ht="23">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
     </row>
     <row r="175" spans="1:3" ht="23">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
     </row>
+    <row r="176" spans="1:3" ht="23">
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+    </row>
     <row r="177" spans="1:2" ht="23">
-      <c r="A177" s="16"/>
-      <c r="B177" s="16"/>
-    </row>
-    <row r="178" spans="1:2" ht="23">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
     </row>
     <row r="179" spans="1:2" ht="23">
-      <c r="A179" s="17"/>
-      <c r="B179" s="18"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
     </row>
     <row r="180" spans="1:2" ht="23">
       <c r="A180" s="17"/>
       <c r="B180" s="18"/>
     </row>
+    <row r="181" spans="1:2" ht="23">
+      <c r="A181" s="17"/>
+      <c r="B181" s="18"/>
+    </row>
+    <row r="182" spans="1:2" ht="23">
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4599,7 +4943,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4875,8 +5219,8 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="224" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4955,7 +5299,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="214" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5018,8 +5362,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="219" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5110,8 +5454,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5307,13 +5651,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8E205-C1BF-B144-9ACA-2C6BC334BF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F9560-B256-9C47-A170-A20355498E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="880" windowWidth="17880" windowHeight="22500" firstSheet="4" activeTab="6" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
     <sheet name="Unité" sheetId="2" r:id="rId2"/>
     <sheet name="Wifi" sheetId="15" r:id="rId3"/>
     <sheet name="Lave-vaisselle" sheetId="6" r:id="rId4"/>
-    <sheet name="Chauffage" sheetId="10" r:id="rId5"/>
-    <sheet name="Salle d'eau" sheetId="11" r:id="rId6"/>
-    <sheet name="Ordinateur" sheetId="14" r:id="rId7"/>
-    <sheet name="Jeux" sheetId="12" r:id="rId8"/>
-    <sheet name="Piscine" sheetId="13" r:id="rId9"/>
+    <sheet name="Salle d'eau" sheetId="11" r:id="rId5"/>
+    <sheet name="Ordinateur" sheetId="14" r:id="rId6"/>
+    <sheet name="Jeux" sheetId="12" r:id="rId7"/>
+    <sheet name="Piscine" sheetId="13" r:id="rId8"/>
+    <sheet name="Chauffage" sheetId="10" r:id="rId9"/>
     <sheet name="Ampoule" sheetId="9" r:id="rId10"/>
     <sheet name="Four" sheetId="5" r:id="rId11"/>
     <sheet name="Réfrigérateur" sheetId="3" r:id="rId12"/>
@@ -1053,14 +1053,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1068,112 +1068,6 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF8EA9DB"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF8EA9DB"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF8EA9DB"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1325,6 +1219,112 @@
       <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;CHF&quot;"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF8EA9DB"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF8EA9DB"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF8EA9DB"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
@@ -1370,28 +1370,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
+  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
+    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
+    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}" name="Tableau16" displayName="Tableau16" ref="A8:B11" totalsRowShown="0">
-  <autoFilter ref="A8:B11" xr:uid="{1691C731-88E0-DA4B-99A9-C3BC1C37BF95}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A67920C7-6752-014C-8E2E-E83F5D557267}" name="Temps d'utilisation"/>
-    <tableColumn id="2" xr3:uid="{51077E60-CB6F-534E-9E25-147B11D63408}" name="kWh par an" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}" name="Tableau11" displayName="Tableau11" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{3E21E9F0-9FA4-A546-AB26-ED583F3E0BCB}"/>
   <tableColumns count="3">
@@ -1403,7 +1392,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}" name="Tableau12" displayName="Tableau12" ref="A10:B14" totalsRowShown="0">
   <autoFilter ref="A10:B14" xr:uid="{2E044CCA-7295-2F42-B47F-EEDB1CAA8BFD}"/>
   <tableColumns count="2">
@@ -1414,7 +1403,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}" name="Tableau13" displayName="Tableau13" ref="A19:C22" totalsRowShown="0">
   <autoFilter ref="A19:C22" xr:uid="{F9B0ED48-331D-0641-888B-F1F1506715F5}"/>
   <tableColumns count="3">
@@ -1426,13 +1415,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}" name="Tableau14" displayName="Tableau14" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{2D65DEE3-D0D1-B944-A685-B4E65978DC9C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F45E0829-E8CB-004A-AA09-5F4FEEABB977}" name="Taille de la piscine" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{FA3D1147-10A5-A245-A0F6-A1439E2F3AC7}" name="Consommation annuelle (kWh)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C16A32EB-BF10-F342-AEC5-B43AA67701D5}" name="Prix par an" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DD1DCAF8-0E29-614E-907E-A1C180D4A7DC}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{6D557020-5894-E140-94F6-31D4FCCF5D31}" name="Consommation par année (kWh)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1447,7 +1447,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3F0D553-089C-524D-9108-75701DAEEF33}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{7A1CA959-9D65-344F-AAD5-E465B1F9C659}" name="Note"/>
-    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{7C1D7844-9CF4-7A4E-8C0E-9EFA3366423F}" name="Prix" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{320E84C5-A171-F340-A834-B86AF1BEFF40}" name="kWh/1000h"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1462,11 +1462,11 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5758CC44-1681-964C-9338-2BB019E9AC7C}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{30C1943D-2CEC-264A-9A7D-E7AC77D87022}" name="Prix" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{62B364C9-036F-A445-A0CA-FAFDA684368C}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{BA97FDEB-0E4C-DA40-935F-C00CEB03F51D}" name="Taille (L)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{CAD16841-5EDD-E943-8BAC-32D763D084FD}" name="kWh/cycle (tournante)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0B6200B0-C6E7-C042-96E7-7A7E4944E005}" name="kWh/cycle (normal)" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{0EF47276-3FA3-2D42-A3F7-9C5C6A2C4521}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1481,7 +1481,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E49B1C8E-A6BE-9740-84F3-304126E269A7}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{47DA7E0D-6CC1-AC4A-A4EF-D4F58ACEFE85}" name="Prix" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{019B8AEB-63F3-474C-B6F0-05CC383A32C3}" name="Note energétique"/>
     <tableColumn id="4" xr3:uid="{E3F2650E-95A8-E942-AF64-37AB05492D4B}" name="kWh/annum"/>
     <tableColumn id="8" xr3:uid="{BC621CE2-E981-D049-AB15-E4CA212166AD}" name="Litres"/>
@@ -1494,11 +1494,11 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}" name="Tableau3" displayName="Tableau3" ref="A1:J7" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:J7" xr:uid="{B9564623-53FA-7D40-A6AB-0BE62270F032}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4F1A858A-C6F9-D24C-86A0-4EF849A6BF50}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{778DFB59-663A-8C46-AFF5-54F4AC5D0123}" name="Prix" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{FB5321E3-0B32-124D-BBAF-5CF4DF5C36C6}" name="Note energétique"/>
     <tableColumn id="9" xr3:uid="{ABEEA6C9-67B3-ED4C-9BD4-9A9B8A563CB1}" name="Froid kWh/60min"/>
     <tableColumn id="4" xr3:uid="{9F41FFA6-D9EF-F845-970E-6E38E6C3D9BC}" name="Froid kWh/annum"/>
@@ -1532,11 +1532,11 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C6C0E69E-2639-0543-BFDA-4909316EB673}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BEF2D6EF-C76F-6B48-8542-AA5E3C1B76B6}" name="Prix" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{0A4C55AB-C438-3047-9672-EE1DD7A19407}" name="Note"/>
     <tableColumn id="4" xr3:uid="{4D2C4730-82FF-1D4C-BA9C-101C6DEE3E39}" name="kWh/cycle"/>
     <tableColumn id="5" xr3:uid="{56637D6B-ED0A-DA4E-8A66-FDC31C1272C7}" name="capacité (kg)"/>
-    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F0AE3E3A-77F8-BF41-A50A-403D818A8C8B}" name="Durée" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{66DB1569-ABA0-8D4D-97B0-EB89BA4EE76C}" name="Consommation eau (L)"/>
     <tableColumn id="8" xr3:uid="{F7D34A9C-8633-E54E-855F-BA188BF0949B}" name="Son (dB)"/>
     <tableColumn id="9" xr3:uid="{89FB637F-7626-5340-A407-76C63AD42BBE}" name="Lien"/>
@@ -1553,10 +1553,10 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E5D7B8DD-B5CB-C943-ACDB-971A768A2B2E}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F4E913A9-E817-F24A-A3B2-CAC07682F8B8}" name="Prix" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{8DCADDF2-AABB-7E44-B472-3EE43B299B4F}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3F46AE45-4EE7-2744-88BC-88E61306F756}" name="kWh/1000h" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3C48D9D1-6DAA-354A-844F-3806F6B5BF52}" name="Hdr kWh/1000h" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{59D3BDCE-ACFE-164F-A1A0-FA1A5FA8CCA1}" name="Dimensions"/>
     <tableColumn id="7" xr3:uid="{52BD125A-1B40-A344-A2EE-2A89995E2F17}" name="url"/>
   </tableColumns>
@@ -1601,14 +1601,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BF02EAA0-2AA5-5644-8FE3-6A4A6B40DBB4}" name="Tableau22" displayName="Tableau22" ref="F12:H18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BF02EAA0-2AA5-5644-8FE3-6A4A6B40DBB4}" name="Tableau22" displayName="Tableau22" ref="F12:H18" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="F12:H18" xr:uid="{BF02EAA0-2AA5-5644-8FE3-6A4A6B40DBB4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8CF88E73-9A47-2743-A35C-78C1E487A6A4}" name="Fonctionnement" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B17F8284-D9BE-4045-8EA5-F3C7EA740A9F}" name="Puissance en Watt" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{8CF88E73-9A47-2743-A35C-78C1E487A6A4}" name="Fonctionnement" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B17F8284-D9BE-4045-8EA5-F3C7EA740A9F}" name="Puissance en Watt" dataDxfId="26">
       <calculatedColumnFormula>AVERAGE(B3,Tableau18[[#This Row],[Puissance en Watt]],B23,B33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2084A2AF-DEA1-124B-9AF5-65C5C18254F1}" name="Unité" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2084A2AF-DEA1-124B-9AF5-65C5C18254F1}" name="Unité" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1622,13 +1622,13 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E0658A4A-8495-0248-AB24-09FEB714A757}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{D03D1815-EB78-5D43-A7F1-8C75AD5791FD}" name="Prix" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{F057CFBC-7C94-B045-B6FC-C6D47C0A8C7D}" name="Note"/>
-    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{F45ED94F-CDF3-C140-BF05-7406B265B66C}" name="kWh/cycle" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{119CAF31-8611-ED41-9153-03E0A755C2F9}" name="# couverts" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{744A9BA4-B5E4-6E43-A251-9CAB4BC620B4}" name="Capacité" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{56EF22B4-7400-DB4B-B749-6B24122DC095}" name="Durée" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{774028B9-1DFD-CE4D-8074-882DC8A024B0}" name="Son (dB)" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{AB376068-7EBF-F04C-B345-1239B975F280}" name="Lien"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1636,22 +1636,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}" name="Tableau10" displayName="Tableau10" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DD1DCAF8-0E29-614E-907E-A1C180D4A7DC}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{6D557020-5894-E140-94F6-31D4FCCF5D31}" name="Consommation par année (kWh)"/>
+    <tableColumn id="1" xr3:uid="{79959E98-D89E-434A-9E0E-3AE6CB43F536}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{E400A699-ABD5-234D-943E-F79111A01D50}" name="Consommation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}" name="Tableau10" displayName="Tableau10" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{1A3BCBCA-FEB6-CA49-9683-2146021C3FE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}" name="Tableau15" displayName="Tableau15" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{919EBE7D-7581-B443-B78E-69C417D5DAE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{79959E98-D89E-434A-9E0E-3AE6CB43F536}" name="Nom"/>
-    <tableColumn id="2" xr3:uid="{E400A699-ABD5-234D-943E-F79111A01D50}" name="Consommation"/>
+    <tableColumn id="1" xr3:uid="{4B90A3E0-156E-244A-8EF0-130A020B353E}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{82D1A2E6-0049-1944-A1B5-F3F8718D1633}" name="kWh"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1956,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63FCF9-2FAA-724C-B87C-1397049E8037}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="168" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="168" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2474,7 +2474,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="211" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2653,7 +2653,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="170" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3186,7 +3186,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3195,6 +3195,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
@@ -3600,7 +3601,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3856,7 +3857,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4077,7 +4078,7 @@
   <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4191,7 +4192,7 @@
       <c r="G12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4205,14 +4206,14 @@
       <c r="C13" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>215</v>
       </c>
       <c r="G13">
         <f>AVERAGE(B3,Tableau18[[#This Row],[Puissance en Watt]],B23,B33)</f>
         <v>4.5250000000000004</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4226,14 +4227,14 @@
       <c r="C14" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>216</v>
       </c>
       <c r="G14">
         <f>AVERAGE(B4,Tableau18[[#This Row],[Puissance en Watt]],B24,B34)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4247,14 +4248,14 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>217</v>
       </c>
       <c r="G15">
         <f>AVERAGE(B5,Tableau18[[#This Row],[Puissance en Watt]],B25,B35)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="27" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4268,14 +4269,14 @@
       <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>218</v>
       </c>
       <c r="G16">
         <f>AVERAGE(B6,Tableau18[[#This Row],[Puissance en Watt]],B26,B36)</f>
         <v>0.25</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="28" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4289,14 +4290,14 @@
       <c r="C17" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>219</v>
       </c>
       <c r="G17">
         <f>AVERAGE(B7,Tableau18[[#This Row],[Puissance en Watt]],B27,B37)</f>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="27" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4310,14 +4311,14 @@
       <c r="C18" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>220</v>
       </c>
       <c r="G18">
         <f>AVERAGE(B8,Tableau18[[#This Row],[Puissance en Watt]],B28,B38)</f>
         <v>26.03</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="28" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4405,7 +4406,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="23">
       <c r="A30" s="13"/>
@@ -4493,7 +4494,7 @@
     <row r="39" spans="1:3" ht="23">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" ht="23">
       <c r="A40" s="13"/>
@@ -4580,16 +4581,16 @@
     <row r="88" spans="1:4" ht="16" customHeight="1"/>
     <row r="89" spans="1:4" ht="16" customHeight="1"/>
     <row r="91" spans="1:4">
-      <c r="A91" s="25"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="25"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4" ht="25">
       <c r="A93" s="22"/>
@@ -4655,14 +4656,14 @@
       <c r="B105" s="18"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="25"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="25"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:4" ht="23">
       <c r="A108" s="18"/>
@@ -4943,7 +4944,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5213,85 +5214,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView zoomScale="224" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2">
-        <v>7060</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5308A4-D575-5C4C-9F39-4902AFAE4E68}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -5299,7 +5221,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="214" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5355,14 +5277,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294B5806-9E4C-244C-8AE2-E94C6ABE62A7}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="239" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5447,7 +5369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40677561-A7CB-4E40-B7D5-373AC982D89E}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -5455,7 +5377,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5643,7 +5565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE293B9-7566-2949-A749-D3685483E9D2}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -5767,4 +5689,83 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E74A2-5E7F-A646-AC37-6AB43B46DDD3}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView zoomScale="224" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>7060</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Game-materials/electro_menagers.xlsx
+++ b/Game-materials/electro_menagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarisse/Documents/MSE/Fall_2023/GT/Projet/Eco-logis/Game-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F9560-B256-9C47-A170-A20355498E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19BED7-5B99-4640-A7F4-007A609204E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="35240" windowHeight="22500" activeTab="8" xr2:uid="{9D243E43-DBA8-DC4F-9D91-06FE22E1B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="230">
   <si>
     <t>Type</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>PDeep Standby</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
   </si>
 </sst>
 </file>
@@ -1428,11 +1431,12 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}" name="Tableau9" displayName="Tableau9" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{0C85C373-863F-4E40-9C13-B4E1C2C10890}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DD1DCAF8-0E29-614E-907E-A1C180D4A7DC}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{6D557020-5894-E140-94F6-31D4FCCF5D31}" name="Consommation par année (kWh)"/>
+    <tableColumn id="3" xr3:uid="{A3B1F56B-2F9C-3943-A348-9B76C131DB9D}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1956,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C63FCF9-2FAA-724C-B87C-1397049E8037}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="168" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A2" zoomScale="168" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5698,8 +5702,8 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="224" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5715,6 +5719,9 @@
       <c r="B1" t="s">
         <v>137</v>
       </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -5723,7 +5730,7 @@
       <c r="B2">
         <v>7060</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M2" t="s">
@@ -5763,9 +5770,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6A03A4E-6C76-0F4A-B2D2-BD158B2FB9D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>